--- a/500all/speech_level/speeches_CHRG-114hhrg98731.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98731.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="239">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400224</t>
   </si>
   <si>
-    <t>John Kline</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Kline. A quorum being present, the Committee on Education and the Workforce will come to order.    Good morning, everyone. I want to extend a warm welcome to the acting Secretary of Education, John King, who is with us to discuss the policies and priorities of the Department of Education. Dr. King has been at the helm of the Department since January and was recently nominated by the President to serve as the next Secretary of Education.    And congratulations on your nomination, Dr. King.    We understand this is the beginning of a busy week for you on Capitol Hill, back to the aforementioned nomination. You graciously agreed to join us today to speak broadly about the Department's priorities, and you will return tomorrow to discuss, specifically, the Department's efforts regarding the Every Student Succeeds Act.    Replacing No Child Left Behind was a leading priority of this committee for many years. We are eager to learn how the Department plans to implement the new law in a way that adheres to the letter and intent of the law. While that's a conversation we will have in more detail tomorrow, it does reflect in some ways on today's hearing. In fact, as we consider the work that lies ahead this year, there are two lessons we can learn from our efforts to improve K-12 education.    First, the American people want commonsense reforms that empower individuals, not Federal bureaucrats. Families across the country face a number of difficult challenges, including stagnant wages, rising college costs, and a lack of full-time jobs.    Unfortunately, the response by many in Washington is to call for more government, more programs, more spending, more rules, more regulations. We've tried this top-down approach for years, and it really hasn't worked. It's time we look for other opportunities to provide more authority and flexibility to the States and local communities while also ensuring a more limited and accountable Federal Government.    Second, we have shown what's possible when we work together in good faith for the common good. We saw a problem, agreed the status quo wasn't working, and came together to enact a practical solution. Both sides brought to the table very different ideas and principles, but we were able to hold onto our principles and still find common ground. Because we did, we delivered real results for the American people, and they expect similar results in the months ahead.    It's for these reasons many of us are disappointed with the President's budget request. It would provide the Department with tens of billions of dollars in new spending to create and administer new entitlement programs as well as numerous new competitive grant programs that put the Department in charge of picking winners and losers. This additional burden to the taxpayer would not provide students and families a more efficient, effective, and accountable agency. Instead, these dollars would be used to grow an already bloated bureaucracy.    No doubt these proposals are well intended, but they will ultimately divert limited taxpayer resources away from existing services that are vitally important to low- and middle-income families.    The American people aren't interested in continuing the same failed policies, but that's precisely what this budget would do. It doubles down on the false hope that the Federal Government can create the opportunity and prosperity families desperately need. We know there's a better way. We recently proved there's a better way. There are a number of issues that deserve our attention, such as expanding access to an affordable college education, improving career and technical education, and the successful implementation of our recent reforms to K-12 education.    Dr. King, I hope we can work together on these and other important issues in a way that builds on our recent success by placing less faith in the schemes of Washington and more faith in the American people.    With that, I will now recognize Ranking Member Scott for his opening remarks.</t>
   </si>
   <si>
     <t>400364</t>
   </si>
   <si>
-    <t>Robert C. "Bobby" Scott</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, Mr. Chairman, for holding the hearing today. And I know some of my colleagues were taken aback when the House and Senate Budget Committees declined, apparently for the first time ever, to invite the administration to give testimony about the President's budget request for FY 2017. I'm glad we have taken a better approach to the annual budget process in this committee, and I know that there are things in this budget that we can agree on and others that we won't agree on. That doesn't mean we shouldn't talk those issues out. I'm glad, Mr. Chairman, that we're having an opportunity to do that today.    I want to welcome the acting Secretary here today as well. We will be seeing a lot of him this week as we hold another hearing tomorrow on the implementation of the Every Student Succeeds Act. Although he will only be in the Department for about a year, that has the potential of being a very transformational year in that it comes at the time when we oversee early learning, elementary and secondary education, and higher education in this country. I know he's up to the challenge, and I look forward to his testimony today.    Our Nation's budget reflects its priorities. I think it's safe to say that the budget request we have before us today from the Department is proof that education remains a top priority for the Obama administration. This year's request includes an additional $1.3 billion, a 2 percent increase, for programs at the Department of Education. At the same time, through a combination of savings from both spending and revenue sides of the budget, the administration's overall budget request reduces the deficit from 3.3 percent of GDP to 2.6 percent.    Mr. Chairman, the request we have before us is, therefore, proof that we can increase the amount we spend on education in a responsible way without running higher deficits. The Federal investment in education is a crucial component of our national strength and competitiveness in the 21st century. That investment begins in early childhood, and this year's request continues to prioritize early childhood education. We can and should provide high-quality early childhood education for all 4-year-olds, and this budget continues to call for us to do just that.    The budget requests builds on the bipartisan work we did on ESSA, and most programs in the bill are at or above the levels authorized in that law. The budget includes multiple programs designed to reduce the cost of higher education, with particular focus on first-generation and low-income students.    I had the honor of working with the Department last year on its America's College Promise proposal to make 2 years of community college the new norm for all students. I was happy to see that the budget request this year reflected modifications we worked on together to include first-generation students and minority-serving institutions as beneficiaries from the ACP program.    The budget request recognizes that investing in teachers and lifting up the teaching profession is essential in improving educational outcomes nationally. If we are going to ensure that every child in every classroom has a highly effective teacher, we have to build pathways to train those teachers and school leaders and provide incentives necessary for them to take the most challenging positions where they are most needed.    Now, there are some questions I have about some of the choices made in the budget. I believe we should do more to increase the maximum Pell Grant award and help to defray the cost of higher education, especially when we make a sizable profit off student loans. There are certain programs authorized on the ESSA that receive 30 percent or higher increases over negotiated authorization levels.    On the whole, I support the President's budget, especially when compared to the alternative. And I say that because the alternative has yet to present itself. For some reason, the Speaker has chosen to expedite the budget process this year, but we still haven't seen the actual proposal from the majority. Last year's majority proposal included $103 billion in cuts in education over 10 years. That translated into significant cuts in Title I, funding for the Individuals with Disabilities Education Act, cuts in Head Start, cuts in Pell Grants. And if the choice is between a Republican budget like last year's and the President's request, I'll take the President's request.    This budget season we will have tough choices to make as the Congress, choices that reflect our values. I think this budget request we have before us strikes the right balance and recognizes that money we spend on education comes back to the country many times over. We need to make crucial investments today if we expect to lead the world on education for decades to come.    So, Mr. Chairman, thank you, and I yield back.</t>
   </si>
   <si>
@@ -79,9 +73,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>King</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. King. Thank you very much. Good morning. Chairman Kline, Ranking Member Scott, and members of the committee, thank you for inviting me to discuss the Department's 2017 budget. I look forward to building on our bipartisan collaboration as we implement the Every Student Succeeds Act and solve important challenges in public education.    This first year, we are focused on three principles: first, ensuring every child has the opportunity to earn an excellent education; second, supporting our Nation's teachers and elevating the teaching profession; and, third, improving access, affordability, and completion in higher education.    These principles, along with my own experiences working in public education, inform the ideas in our 2017 budget proposal. Before joining the Department, I led the New York State Department of Education and served as the managing director of Uncommon Schools, a network of high-achieving charter schools. I began my career as a high school social studies teacher and cofounded one of the highest-performing middle schools in Massachusetts.    I'm also the proud parent of two public school students, and these experiences inspire every decision that I make at the Department.    While this budget is focused on the challenges ahead of us, I also want to acknowledge the remarkable gains we are seeing. High school graduation rates are at an all-time high and dropout rates are falling. We have the largest and most diverse classes enrolling and completing higher education. The numbers of African American and Latino college students are up by more than a million since 2008.    The Department's 2017 budget builds on that progress in important ways. It would strengthen formula programs at the heart of the Every Student Succeeds Act and invest in next-generation high schools and career and technical education. It ensures that our youngest learners get a strong start in school through President Obama's landmark Preschool for All initiative and capitalizes on teacher leadership by helping them achieve their ideas in the schools where they are needed most, and brings computer science to every classroom in this country.    Through the new Stronger Together program, we would help school and district leaders create more high-achieving, socioeconomically diverse classrooms and schools. All students benefit from learning with classmates from different economic backgrounds, and all students should have that opportunity.    The programs in our 2017 budget would also make higher education more affordable and help more students earn their college degrees. America's College Promise would make community college free for all students, an idea that is proving its potential in communities from Tennessee to Long Beach, California. This budget would also drive innovations in Pell Grants by supporting students that take summer classes and at least 15 credits per semester and reward institutions with high completion rates.    We need new strategies for helping students earn their degrees, and through First in the World and the HBCU Innovation for Completion Fund, we would help colleges translate their ideas into better outcomes for their students.    This budget leverages local leadership, the source of strength of our Nation's education system, to help more students succeed. But I also know that there are places where leaders are not living up to their responsibilities.    Last year, I visited a community where five local schools had become socioeconomically and racially isolated and under-resourced failure factories, to borrow a term from a local newspaper. There, we met desperate families, dejected teachers, and students that questioned whether the adults in their lives really care.    I contrast that visit with the excellent schools I've seen in communities from Houston to Wilmington to Miami. I've met countless engaged students who know that, thanks to the educators in their lives, their destiny will not be determined by where they were born.    The Department's 2017 budget would support local and State-led efforts to create many more places where students know their education and their future is in their own hands. I look forward to discussing these ideas with you in more detail and would be happy to answer your questions. Thank you.</t>
   </si>
   <si>
@@ -118,9 +109,6 @@
     <t>412310</t>
   </si>
   <si>
-    <t>David P. Roe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Roe. Thank you, Mr. Chairman.    Dr. King, good luck on your confirmation. I'm from the great State of Tennessee. We do fund our colleges based on graduation rates, not on heads and beds. And we also have provided free community college and technical college. As you know, we've had the greatest gains in K through 12 than any State in the Union. People should be looking at that.    What I want to talk about today with you, and I really want to work with the Department on this, and probably you have read this, but Dr. Nick Zeppos at Vanderbilt has ``Recalibrating Regulations of Colleges and Universities.'' I'm just going to go over a few things quickly about the incredible costs that are placed on colleges to comply with Federal regulations.    Basically, regulations that, for instance, in 1997, at Stanford University, 7.5 percent of the tuition was to comply with Federal regulations. In Vanderbilt University, in 2014, 11 percent, or $150 million, that's $11,000 per student, just to comply with Federal regulations. That's one of the ways we could have more money, is to decrease the amount of regulatory burden we placed on these colleges and universities. Thirty-three percent increase in the last 10 years in compliance officers in colleges. And this is public data.    Regulations are overly complex. In at least one case, a guidance document meant to clarify uncertainty led to more confusion. In 2011, a ``dear colleague'' on Title IX responsibilities for sexual harassment contained all these complex mandates, and then when they had to explain just that, it was a 53-page document that people had to go through.    The colleges are required to have selective service registration. Not that these are not important, but this is something a college probably shouldn't be doing. Voter registration requirements, peer-to-peer file sharing, foreign gift reporting. I mean, on and on, I could go on and on.    Timely. Let me give you this one. In May of 2013, Yale University was ordered to repay financial aid funds based on the Department of Education audit undertaken in 1996. The University of Colorado received a similar demand based on a 1997 audit. And even though the universities appealed in a timely fashion, it took 17 and 16 years, respectively, for the Department to act. That's ridiculous, and it's expensive, because they are, again, doing all these things.    2004, the Department investigated Yale for the Clery Act reporting violation, that's sexual harassment on campus, 2001 and 2002, but the fine wasn't issued until 2013. So I could go on and on with that.    Another thing is a barrier to innovation, these requirements are. Vanderbilt gave up its online programming because of the extensive requirements in several States. In North Carolina, they just threw the hat in. And in California, the State of California projected the cost of developing and implementing a new data system required to meet regulatory requirements at $233 million just for California alone. That would have much been better than IDEA or other things that we could have spent money on. As we have all said, the resources are limited.    So I want to work with you. This is a great document. Have you read this document?</t>
   </si>
   <si>
@@ -154,9 +142,6 @@
     <t>400179</t>
   </si>
   <si>
-    <t>Rubén Hinojosa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hinojosa. Thank you, Chairman Kline. I have some prepared remarks here, and I want to certainly ask the questions.    Dr. King, thank you for coming to speak to our committee, and it's a pleasure to hear your education priorities on this 2017 budget that is certainly going to be discussed the rest of this month and maybe longer. But I want to say that in seeing the materials that were given to us by staff, I am very concerned.    You made the statement that the HBCUs are a very important component of higher education, and I have been one of the strongest supporters of HBCUs. In fact, as chairman of the Congressional Hispanic Caucus, I met with the Black Caucus and the Hispanic Caucus leaders, as well as the Asian Pacific, and we came to an agreement that we were going to all work together to help all minority-serving institutions.    But in looking at your proposed budget here, increasing 245 million for strengthening HBCUs, and seeing the increase in the student population of HSIs, the numbers that are enrolling since 2010 with the reconciliation of higher education went up 30 percent, and yet you have nothing in here increasing the investment in both the HSIs and the Asia-Pacific colleges and universities as we requested of President Obama when we met with him at the White House.    And furthermore, you have to realize that if we don't speak up, I don't think that the government and, certainly, the Congress is going to increase it, because we had to fight for 20 years to get the kind of increases we got in 2010.    Now, HSIs were reduced 2 years ago in their Federal investment, and I'm very concerned, and you need to explain to me why you left out the other two groups.</t>
   </si>
   <si>
@@ -178,9 +163,6 @@
     <t>412317</t>
   </si>
   <si>
-    <t>Glenn Thompson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Thompson. Thank you, Chairman.    Dr. King, thank you so much for being here. Good luck, best wishes, for your confirmation process with the Senate.</t>
   </si>
   <si>
@@ -205,9 +187,6 @@
     <t>400162</t>
   </si>
   <si>
-    <t>Raúl M. Grijalva</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Grijalva. Thank you, Mr. Chairman.    And thank you for being here, Dr. King. I appreciate it very much. And best of luck on your confirmation.    In this President's budget we once again see an increase in the funding for charter schools. And given all the discussion that goes back and forth on that concept, whether it's for-profit or public charters, that we've seen in the past, one of the questions that I have, that I think is something that I think lags behind in the effort to increase the funding at a time when some of the categorical programs are losing funding and traditional public schools are losing funding, how will the Department ensure that there's some really basic accountability to these entities?    How will these entities communicate to students and parents that make the choice to enter a charter school, everything from financial disclosure, what is proprietary and not in terms of the entities that run these, and regulatory issues, the public's right to know, public disclosure, public meetings, so that people can attend and know what is outside of a financial boardroom but is in a public setting?    These are questions I think that as we move forward in the initiatives of this administration on charter schools that lagging behind is the taxpayer accountability as to how this money is being used. And what do you propose in that area in general?    And before you answer, let me just indicate to you, Dr. King, let me associate myself with Mr. Hinojosa's comments relative to minority-serving institutions as a whole.    Sir?</t>
   </si>
   <si>
@@ -229,9 +208,6 @@
     <t>412213</t>
   </si>
   <si>
-    <t>Tim Walberg</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walberg. Thank you, Mr. Chairman.    And thank you, Secretary, for your willingness to come today.    I want to ask questions about a program that you are now responsible for, caring for, and undertaking. It's a program that I must admit right from the get-go I don't support. I think it is ill-advised. It is top-down management of a set of indicators that I don't think we can do effectively from the Federal level, and that's the College Scorecard.    Is the goal of the College Scorecard, in your mind, to determine which colleges and universities are legitimate?</t>
   </si>
   <si>
@@ -265,9 +241,6 @@
     <t>412327</t>
   </si>
   <si>
-    <t>Marcia L. Fudge</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Fudge. Thank you very much, Mr. Chairman.    And thank you, Dr. King, for being here. Certainly, I am confident that the Senate will see your stellar qualifications and confirm you, so we are just going to claim that.    I too do want to just agree with my colleague, Representative Grijalva, about my concern of accountability for charter schools. Obviously, I'm from the State of Ohio, where our State purposefully, knowingly, sent misleading information to the Federal Government about our charter schools. So I know what it's like.    Dr. King, last year, Congressman Gibson, Senators Portman and Warner, and myself introduced the Go to High School, Go to College Act, which allows students in dual enrollment in early college programs to access Pell Grant dollars while still in high school. In October 2015, the Department announced a pilot program to allow high school students the opportunity to access Federal Pell Grants to take college courses through dual enrollment.    What funding is in the fiscal year 2017 education budget for early Pell and dual-enrollment programs, and what is that status of the Department's pilot program?</t>
   </si>
   <si>
@@ -316,9 +289,6 @@
     <t>400606</t>
   </si>
   <si>
-    <t>Matt Salmon</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Salmon. Thank you.    Welcome, Dr. King.</t>
   </si>
   <si>
@@ -346,9 +316,6 @@
     <t>400433</t>
   </si>
   <si>
-    <t>Joe Wilson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Wilson. Thank you.    I also want to know if you can speak to how the President's budget takes steps towards training and attracting more diverse school leaders.</t>
   </si>
   <si>
@@ -367,9 +334,6 @@
     <t>400643</t>
   </si>
   <si>
-    <t>Virginia Foxx</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Foxx. Thank you, Mr. Chairman.    And thank you, Mr. Secretary for being here. I have several questions for you. I'd be happy for you to answer with any time that's remaining, but will ask for a written response for questions you're not able to answer here today.    I'm very concerned about what's happening within your Department's Office for Civil Rights and its impact on college campuses across the country. For too long the OCR has gone around Congress by legislating a new mission, and I'm deeply concerned about the office's legitimacy and effectiveness on these issues and the potential negative impact on students and institutions. The office has used the Dear Colleague letter process, an implied threat of investigation that would result in the loss of Federal funds as a way to require action by institutions.    Anything that can result in an expensive and protracted investigation should be established by Congress through law. And I'm very concerned that a number of the office's actions encroach on our constitutional authority to make laws. The office should follow the regulatory process that provides ample time for notice and comment. There are significant issues that should be addressed by stakeholders before the Department makes a unilateral decision on how to address certain issues. And, again, individual circumstances matter greatly.    To that end, these are questions. How many of the Dear Colleague letters that have been issued over the past 6 years were reviewed to determine they should have been submitted for notice and comment? How many of those letters have had notice and comment period prior to issuance? Who makes that determination? Who's consulted about these significant changes prior to the letters being written?    I'd also like to know what you plan to do to ensure this process is reformed to give all relevant stakeholders time to weigh in to ensure any new rules are the best way to prevent discrimination in our schools and on campus.    Further, the Office of Civil Rights is busy touting how many sexual assault cases it has opened, but the number of cases isn't as important as providing justice in each individual case. Many are concerned that the office's current approach is counterproductive to reaching a just resolution, as well as being costly and efficient.    How were these cases brought to the Department? How many of the cases before the office have been closed? How long does it take to close these cases? And are you publishing that information along with the findings in each case while ensuring that you're protecting student privacy?    And last, the President's budget includes a sizeable increase in funding for student aid administration. However, at a November hearing we heard testimony that FSA is not meeting its statutory obligations to be accountable for its operations or meet its mandated planning and reporting requirements. How do you plan to ensure FSA is acting as an effective partner with institutions as its PBO status requires?    So I welcome you to answer these. But I also would like a written response to any you're not able to answer, by March 1. Thank you very much.</t>
   </si>
   <si>
@@ -391,9 +355,6 @@
     <t>412501</t>
   </si>
   <si>
-    <t>Suzanne Bonamici</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bonamici. Thank you, Mr. Chairman.    Congratulations, Dr. King, on your nomination. I wish you an expeditious path through that process.    I know today is budget and tomorrow is Every Student Succeeds Act. But I want to for a moment follow up on Ms. Wilson's comments about the Student Support and Academic Enrichment Grant program. You know, we authorized $1.65 billion for these formula block grants, but the Department budget requests only about a third of that amount and also proposes making the grants competitive. The distribution formula was designed to protect against some of the concerns of consolidating programs. So I'm concerned about that.    So I have a two-part question. First, can you talk about the disruption that could be caused by making these grants competitive? There's a lot of potential from these formula grants to sustain meaningful changes.    And second, I appreciate the challenges of designing a budget that adequately funds programs. But I must tell you, I'm currently circulating a letter to my colleagues urging their support in an attempt to fully fund this program at its authorized level. So are you confident that these additional dollars, if we are successful in that request, will be put to good use in our local school districts?    So the concern about the disruption and will these dollars be put to good use. And I do want to save time for a higher ed question quickly.</t>
   </si>
   <si>
@@ -415,9 +376,6 @@
     <t>412426</t>
   </si>
   <si>
-    <t>Todd Rokita</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rokita. Thank the chairman.    Acting Secretary King, thanks for being here today. I'm currently chairing the kindergarten to 12th grade subcommittee, and look forward to working with you. Just so know, my office is always open, the phone's always available for you. That's the relationship I had with your predecessor, and I offer it to you here publicly.</t>
   </si>
   <si>
@@ -493,9 +451,6 @@
     <t>412600</t>
   </si>
   <si>
-    <t>Katherine M. Clark</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Clark. Thank you, Mr. Chairman.    And thank you, Mr. Secretary, for being here today.    I want to turn towards the preschoolers and early education, and specifically parts B and C of the IDEA Act. As you know, they are absolutely critical to addressing the needs of our young children from birth through age 5 who experience learning challenges, including, you know, they provide support for preschools as well as State infrastructure for early screening, referral, and intervention. I was delighted to see a modest increase. You know these programs could use even more, but we are grateful for the Department in doing that.    Can you address the priorities in the area of early education, but specifically for young children with disabilities?</t>
   </si>
   <si>
@@ -514,9 +469,6 @@
     <t>412446</t>
   </si>
   <si>
-    <t>Joseph J. Heck</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Heck. Thank you, Mr. Chair.    And thank you, Secretary, for being here.    I represent the Clark County School District in southern Nevada, which is the fifth-largest school district in the country, which presents its own unique challenges. But one of the bright spots that we have is our career and technical education programs, which provide for very engaged students, passionate teachers, and much higher graduation rates than the general population.    CTE has that ``hold harmless'' provision in it that was based on 1998 funding levels, which disproportionately impact States that experienced rapid growth, like Nevada, in the ensuing 18 years. A prior budget proposal would have shifted money from CTE to another program, which would have then invoked the ``hold harmless'' provision. I was glad that proposal was not followed and has not reappeared. But I remain concerned about that provision.    Can you tell me what ideas you have to ensure adequate and equitable distribution of CTE funding to all States based on current populations and need?</t>
   </si>
   <si>
@@ -538,9 +490,6 @@
     <t>412308</t>
   </si>
   <si>
-    <t>Jared Polis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Polis. Thank you, Mr. Chairman. Well, I have three questions for the Secretary.    And I'll give them all to you, and then hopefully you'll have time to respond.    First of all, thank you so much for coming before us and thank the Obama administration for putting forward a great budget in this area. I especially want to thank you for the administration's proposed funding increase for the Charter School Program requested at $350 million. As you know, the administration also supported the recent omnibus bill that had an increase of $80 million of plus-up for fiscal year 2016 funding for charter schools, and I'm pleased to see the support will continue under your leadership.    My three questions are, first, open education. Last year, the Department indicated that access to open education resources would be a priority for the Department's Office of Education Technology. We see great opportunities to save students money on textbooks, particularly at the higher ed level, and I'd like you to address how the President's budget request continues the Office of Ed Tech's commitment to increasing access to open resources and ensuring materials created with grants from the Department are available to the public under an open license. That's the first one.    Second question, a few people have addressed, have brought up the importance of summer Pell. I want to lend my voice to that. I spoke with students in Boulder and Fort Collins at CSU and CU about access to Pell Grants in the summer. I was hoping you could briefly address how the administration's request for funding summer Pell is important for students and your plans in that area.    And then finally, dual enrollment. We're very excited in Colorado, we found that a student is 23 percent more likely to attend college if they took dual-enrollment classes in high school. That is a class that is offered usually through a community college for college credit. It's a great way to get low-income kids or first-generation college-goers to access college, sometimes even earn an associate's degree concurrent with their high school degree.    What is the Department doing and what can the Department do to support the growth of these programs, and what can Congress do to ensure that more students have access to dual-enrollment programs and access to low-cost or no-cost for-credit college courses while they're in high school?</t>
   </si>
   <si>
@@ -562,9 +511,6 @@
     <t>412278</t>
   </si>
   <si>
-    <t>Brett Guthrie</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Guthrie. Thank you, Mr. Chairman.    Thank you, Mr. Secretary for being here. Appreciate you being here today.    We've received some reports that the Federal Student Aid, FSA, and the Office of Postsecondary Education, OPE, do not always communicate effectively, and, in general, most offices within the Department are siloed from each other, which harms coordination and efficiency. This came to a head in November when former Secretary Duncan sent a memo to FSA and to OPE instructing them to find a better process for communicating effectively in regards to accreditation issues.    How did this communication become so ineffective it required a memo from the head of the agency? And then what are you doing within the Department to make the communication practices effective overall, better overall?</t>
   </si>
   <si>
@@ -586,9 +532,6 @@
     <t>412607</t>
   </si>
   <si>
-    <t>Alma S. Adams</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Adams. Thank you, Mr. Chair.    And, Dr. King, thank you for testifying today and for speaking with the Bipartisan HBCU Caucus a few weeks ago. It was a pleasure to have you there and to know that we have a bipartisan group of members on both sides of the aisle who are very interested in this issue. I'm encouraged as well that you will do well with your confirmation, and congratulations.    As you know, and many of my colleagues know, HBCUs have been a priority of mine for a while. So I was pleased to see the new HBCU/MSI Innovation for Completion Fund, and within it the First in the World Program and the support for HBCUs. So could you talk a little bit more about the decision to create the program and support for HBCUs and ways that the Department can work to address the funding discrepancies that have historically existed for these schools?</t>
   </si>
   <si>
@@ -607,9 +550,6 @@
     <t>412540</t>
   </si>
   <si>
-    <t>Luke Messer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Messer. Thank you, Chairman.    Congratulations, Dr. King. It's great to have you here.    I want to start with a thank you and then a request for help. The thank you comes with your predecessor and your team back in September, the Federal Department of Education was very helpful to charter schools in Indiana. And I sent a letter in late September, that you may well be aware of, where it was determined that there were $2.3 million in cuts to Indiana's public charter schools, and at a time when you didn't have similar cuts to the other public charter schools.    In immediate response to that letter, the Indiana Department of Education reached out to the Federal Department of Education, and you guys very clearly and very quickly told them that their calculations were wrong and that they needed to do something about it. In fact, you set up a meeting in late September of those principals to charter schools, the State Board of Education and the Indiana Department of Education, to discuss that. So thank you. Thank you for your prompt action there.    Now, this was where my request for help comes in, because since that time there's been radio silence. You know, it's not fair that we would penalize public school students who choose to go to charter schools. And if we care about these kids, we need to do something about it.    And so I have a couple quick questions. One, are you aware of whether the Federal Department of Education has had any follow-up with the Indiana Department of Education on this issue?</t>
   </si>
   <si>
@@ -646,9 +586,6 @@
     <t>412520</t>
   </si>
   <si>
-    <t>Mark Takano</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Takano. Thank you, Mr. Chairman.    Mr. Secretary, good morning, I guess. With all the destruction of students' financial futures caused by big predatory for-profit colleges, and with so many of the students now claiming fraud and demanding debt relief that could cost taxpayers billions of dollars, with mounting law enforcement investigations of these same companies, and with some of these companies themselves in irresponsible, precarious financial shape, does the Department think it makes sense to keep sending these companies billions of our taxpayer dollars and sending our students there?    Are you taking a harder look at the continued eligibility of some of these companies for Title IX aid?</t>
   </si>
   <si>
@@ -682,9 +619,6 @@
     <t>412648</t>
   </si>
   <si>
-    <t>Elise M. Stefanik</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Stefanik. Thank you, Mr. Chairman.    Dr. King, thank you for joining us today.    I wanted to focus my question on higher ed. The district I represent in the north country in New York State, I consistently hear from students, financial aid administrators, concerned parents that our financial aid system is overly complex and nonintuitive. And I believe that instead of confusing students, our aid system should enable individuals to quickly attain the skills necessary to work and to contribute to our economy.    Which is why last year, along with my colleagues, Mr. Curbelo and Mr. Hinojosa, I introduced the Flexible Pell Grant for 21st Century Students Act. And I thank you for your positive comments on the year-round Pell bill. And I also want to thank my colleagues, Ms. Clark and Mr. Polis, for their positive comments on year-round Pell, and I encourage them to cosponsor this bill.    Not only does this bill encourage students to complete their degrees at an accelerated pace, but the bill also directs the Secretary to provide annual financial aid reports to Pell students to help them make the right financial decisions for their unique situation.    So my question for you is, in the year ahead, how do you intend to ensure that we are providing all students with the necessary counseling, especially those most in need as they navigate postsecondary education with a very complex student loan repayment program?</t>
   </si>
   <si>
@@ -700,9 +634,6 @@
     <t>400097</t>
   </si>
   <si>
-    <t>Susan A. Davis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Davis. Thank you, Mr. Chairman.    And thank you, Dr. King, for being here and for taking on this critical leadership position.    I wanted to ask you particularly about teachers. I'm afraid I'm doing double duty here today, so I was in another committee. It's my understanding that you haven't spoken too much about teachers today, and we know that they're absolutely critical in a student's achievement and personal future.    One of the issues that's critical is around teacher diversity and making sure that people understand why this is important. So perhaps you could address that.    The other is in California, particularly, we're looking at a teacher shortage that's significant. And many retired teachers understand why that's true. And, in fact, a recent article basically said that most retired teachers would never recommend to their kids that they become teachers.    Now, that's something that we have to be very concerned about. And sometimes people see this, I think, as a State issue, a local issue, one that the Federal Government ought not be involved in. So I wonder if you could address that as well.    And then in terms of teacher professionalism initiatives, what are the key initiatives that you would like to not just engage in, but you would like to see your time in office that really raises the professionalism of teachers? What are the current programs? What more -- what can be done? Because as we all know, teachers are concerned that if they take on some of the leadership roles within schools that they would be taken out of their classroom even, and those are dedicated teachers who don't want to do that.</t>
   </si>
   <si>
@@ -727,9 +658,6 @@
     <t>412661</t>
   </si>
   <si>
-    <t>Glenn Grothman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Grothman. Obviously, student debt is a huge problem out there. Are you in favor of allowing students to refinance their debt at a lower interest rate?</t>
   </si>
   <si>
@@ -776,9 +704,6 @@
   </si>
   <si>
     <t>412635</t>
-  </si>
-  <si>
-    <t>Mike Bishop</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Bishop. Thank you, Mr. Chair.    Mr. Secretary, thank you for being here today. Thank you for your testimony. You certainly have outlasted the rest of the committee. Congratulations on that.    I have just one question, in fact, and I wanted to get your input, if I could, on the Department of Labor's proposed overtime rule and really your input as to what I've been hearing from a lot of folks in the education community that it would have a dramatic effect on higher ed all the way down to our local school districts.    Just specifically, I've heard from a number of small colleges in my home State of Michigan about the potential negative impacts of this new rule. One college, very small, 1,700 students, told me they could face up to a million-dollar increase in costs per year under this new rule.    There are other examples across the country. As I looked into the issue, I found the university system of Maryland, for example, estimates that they could see an increase in costs of up to 40 million in just the first year. The University of Florida, which has 12 universities in all, faces a cost of 62 million annually -- $62 million. Community colleges in Iowa estimate that this rule would have raised -- could have raised their costs in 2016 so far up to $12.6 million. That's just in the first quarter. There are so many examples, and I won't get into all of them because we have limited time, but it's of great concern.    I should note that the rule will also have negative impacts on school employees. Many of them will be reclassified as hourly employees to try and deal with this rule. That would be considered by most as a demotion. The rule would also limit opportunities in the workplace, such as flexible schedules and career development.    And, obviously, too this has a huge impact on the other side too, increasing costs for colleges and universities at all levels, and that trickles all the way down to everybody who's got to pay for colleges, students, parents, and it's really having a hugely devastating effect.    And I'm not certain that this was intended to be the case, but I do know that it is the case, and I just wondered if you could give me some of your thoughts about the proposed rules and some of these issues that have been raised.</t>
@@ -1204,11 +1129,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1228,13 +1151,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1256,11 +1177,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1282,11 +1201,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1308,11 +1225,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1332,13 +1247,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1360,11 +1273,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1384,13 +1295,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
         <v>21</v>
-      </c>
-      <c r="H9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1412,11 +1321,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1436,13 +1343,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1462,13 +1367,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1488,13 +1391,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1514,13 +1415,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1540,13 +1439,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1566,13 +1463,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1594,11 +1489,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1618,13 +1511,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" t="s">
-        <v>34</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1644,13 +1535,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1670,13 +1559,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
         <v>33</v>
-      </c>
-      <c r="G20" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1696,13 +1583,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1722,13 +1607,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" t="s">
-        <v>34</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1748,13 +1631,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1774,13 +1655,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" t="s">
-        <v>34</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1800,13 +1679,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1826,13 +1703,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" t="s">
-        <v>34</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1854,11 +1729,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1878,13 +1751,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
-      </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1904,13 +1775,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1930,13 +1799,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
-      </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1956,13 +1823,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1982,13 +1847,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
         <v>46</v>
-      </c>
-      <c r="H32" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2010,11 +1873,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2034,13 +1895,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G34" t="s">
-        <v>54</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2060,13 +1919,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2086,13 +1943,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>53</v>
-      </c>
-      <c r="G36" t="s">
-        <v>54</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2112,13 +1967,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2138,13 +1991,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
         <v>53</v>
-      </c>
-      <c r="G38" t="s">
-        <v>54</v>
-      </c>
-      <c r="H38" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2164,13 +2015,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2192,11 +2041,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2216,13 +2063,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>62</v>
-      </c>
-      <c r="G41" t="s">
-        <v>63</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2242,13 +2087,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2268,13 +2111,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
-      </c>
-      <c r="G43" t="s">
-        <v>63</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2294,13 +2135,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2320,13 +2159,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>62</v>
-      </c>
-      <c r="G45" t="s">
-        <v>63</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2348,11 +2185,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2372,13 +2207,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>70</v>
-      </c>
-      <c r="G47" t="s">
-        <v>71</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2398,13 +2231,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2424,13 +2255,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>70</v>
-      </c>
-      <c r="G49" t="s">
-        <v>71</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2450,13 +2279,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2476,13 +2303,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>70</v>
-      </c>
-      <c r="G51" t="s">
-        <v>71</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2502,13 +2327,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2528,13 +2351,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
+        <v>63</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
         <v>70</v>
-      </c>
-      <c r="G53" t="s">
-        <v>71</v>
-      </c>
-      <c r="H53" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2554,13 +2375,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2580,13 +2399,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>70</v>
-      </c>
-      <c r="G55" t="s">
-        <v>71</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2608,11 +2425,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>12</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2632,13 +2447,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>82</v>
-      </c>
-      <c r="G57" t="s">
-        <v>83</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2658,13 +2471,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2684,13 +2495,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>82</v>
-      </c>
-      <c r="G59" t="s">
-        <v>83</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2710,13 +2519,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
-      </c>
-      <c r="G60" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2736,13 +2543,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>82</v>
-      </c>
-      <c r="G61" t="s">
-        <v>83</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2762,13 +2567,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G62" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2788,13 +2591,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>82</v>
-      </c>
-      <c r="G63" t="s">
-        <v>83</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2814,13 +2615,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>20</v>
-      </c>
-      <c r="G64" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2840,13 +2639,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>82</v>
-      </c>
-      <c r="G65" t="s">
+        <v>74</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
         <v>83</v>
-      </c>
-      <c r="H65" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2866,13 +2663,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2892,13 +2687,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>82</v>
-      </c>
-      <c r="G67" t="s">
-        <v>83</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2918,13 +2711,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>20</v>
-      </c>
-      <c r="G68" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2944,13 +2735,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>82</v>
-      </c>
-      <c r="G69" t="s">
-        <v>83</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2970,13 +2759,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>82</v>
-      </c>
-      <c r="G70" t="s">
-        <v>83</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2998,11 +2785,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>12</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3022,13 +2807,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>99</v>
-      </c>
-      <c r="G72" t="s">
-        <v>100</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3048,13 +2831,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>20</v>
-      </c>
-      <c r="G73" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3074,13 +2855,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>99</v>
-      </c>
-      <c r="G74" t="s">
-        <v>100</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3100,13 +2879,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3126,13 +2903,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>99</v>
-      </c>
-      <c r="G76" t="s">
-        <v>100</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3152,13 +2927,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3178,13 +2951,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>99</v>
-      </c>
-      <c r="G78" t="s">
-        <v>100</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3206,11 +2977,9 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>12</v>
-      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3230,13 +2999,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>20</v>
-      </c>
-      <c r="G80" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3256,13 +3023,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>109</v>
-      </c>
-      <c r="G81" t="s">
-        <v>110</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3282,13 +3047,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>20</v>
-      </c>
-      <c r="G82" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3308,13 +3071,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>109</v>
-      </c>
-      <c r="G83" t="s">
-        <v>110</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3334,13 +3095,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>20</v>
-      </c>
-      <c r="G84" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3362,11 +3121,9 @@
       <c r="F85" t="s">
         <v>11</v>
       </c>
-      <c r="G85" t="s">
-        <v>12</v>
-      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3386,13 +3143,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>116</v>
-      </c>
-      <c r="G86" t="s">
-        <v>117</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3412,13 +3167,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>20</v>
-      </c>
-      <c r="G87" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3438,13 +3191,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>116</v>
-      </c>
-      <c r="G88" t="s">
-        <v>117</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3464,13 +3215,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>20</v>
-      </c>
-      <c r="G89" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3490,13 +3239,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>116</v>
-      </c>
-      <c r="G90" t="s">
-        <v>117</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3516,13 +3263,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>20</v>
-      </c>
-      <c r="G91" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3544,11 +3289,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3568,13 +3311,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>124</v>
-      </c>
-      <c r="G93" t="s">
-        <v>125</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3594,13 +3335,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>20</v>
-      </c>
-      <c r="G94" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3620,13 +3359,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>124</v>
-      </c>
-      <c r="G95" t="s">
-        <v>125</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3646,13 +3383,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>20</v>
-      </c>
-      <c r="G96" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3672,13 +3407,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>124</v>
-      </c>
-      <c r="G97" t="s">
-        <v>125</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3700,11 +3433,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>12</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3724,13 +3455,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>132</v>
-      </c>
-      <c r="G99" t="s">
-        <v>133</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3750,13 +3479,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>20</v>
-      </c>
-      <c r="G100" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3776,13 +3503,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>132</v>
-      </c>
-      <c r="G101" t="s">
-        <v>133</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3802,13 +3527,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>20</v>
-      </c>
-      <c r="G102" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3828,13 +3551,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>132</v>
-      </c>
-      <c r="G103" t="s">
-        <v>133</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3854,13 +3575,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>20</v>
-      </c>
-      <c r="G104" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3880,13 +3599,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>132</v>
-      </c>
-      <c r="G105" t="s">
-        <v>133</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3906,13 +3623,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>20</v>
-      </c>
-      <c r="G106" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3932,13 +3647,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>132</v>
-      </c>
-      <c r="G107" t="s">
-        <v>133</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3958,13 +3671,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>20</v>
-      </c>
-      <c r="G108" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3984,13 +3695,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>132</v>
-      </c>
-      <c r="G109" t="s">
-        <v>133</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4010,13 +3719,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>20</v>
-      </c>
-      <c r="G110" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4036,13 +3743,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
+        <v>119</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
         <v>132</v>
-      </c>
-      <c r="G111" t="s">
-        <v>133</v>
-      </c>
-      <c r="H111" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4062,13 +3767,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>20</v>
-      </c>
-      <c r="G112" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4088,13 +3791,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>132</v>
-      </c>
-      <c r="G113" t="s">
-        <v>133</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4114,13 +3815,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>20</v>
-      </c>
-      <c r="G114" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4140,13 +3839,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>132</v>
-      </c>
-      <c r="G115" t="s">
-        <v>133</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4166,13 +3863,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>20</v>
-      </c>
-      <c r="G116" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4192,13 +3887,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>132</v>
-      </c>
-      <c r="G117" t="s">
-        <v>133</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4218,13 +3911,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>20</v>
-      </c>
-      <c r="G118" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4244,13 +3935,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>132</v>
-      </c>
-      <c r="G119" t="s">
-        <v>133</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4270,13 +3959,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>20</v>
-      </c>
-      <c r="G120" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4296,13 +3983,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>132</v>
-      </c>
-      <c r="G121" t="s">
-        <v>133</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4324,11 +4009,9 @@
       <c r="F122" t="s">
         <v>11</v>
       </c>
-      <c r="G122" t="s">
-        <v>12</v>
-      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4348,13 +4031,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>158</v>
-      </c>
-      <c r="G123" t="s">
-        <v>159</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4374,13 +4055,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>20</v>
-      </c>
-      <c r="G124" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4400,13 +4079,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>158</v>
-      </c>
-      <c r="G125" t="s">
-        <v>159</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4426,13 +4103,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>20</v>
-      </c>
-      <c r="G126" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4454,11 +4129,9 @@
       <c r="F127" t="s">
         <v>11</v>
       </c>
-      <c r="G127" t="s">
-        <v>12</v>
-      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4478,13 +4151,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>165</v>
-      </c>
-      <c r="G128" t="s">
-        <v>166</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4504,13 +4175,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>20</v>
-      </c>
-      <c r="G129" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4530,13 +4199,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>165</v>
-      </c>
-      <c r="G130" t="s">
-        <v>166</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4556,13 +4223,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>20</v>
-      </c>
-      <c r="G131" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4582,13 +4247,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>165</v>
-      </c>
-      <c r="G132" t="s">
-        <v>166</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4610,11 +4273,9 @@
       <c r="F133" t="s">
         <v>11</v>
       </c>
-      <c r="G133" t="s">
-        <v>12</v>
-      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4634,13 +4295,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>173</v>
-      </c>
-      <c r="G134" t="s">
-        <v>174</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4660,13 +4319,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>20</v>
-      </c>
-      <c r="G135" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4686,13 +4343,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>173</v>
-      </c>
-      <c r="G136" t="s">
-        <v>174</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4714,11 +4369,9 @@
       <c r="F137" t="s">
         <v>11</v>
       </c>
-      <c r="G137" t="s">
-        <v>12</v>
-      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4738,13 +4391,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>173</v>
-      </c>
-      <c r="G138" t="s">
-        <v>174</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4766,11 +4417,9 @@
       <c r="F139" t="s">
         <v>11</v>
       </c>
-      <c r="G139" t="s">
-        <v>12</v>
-      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4790,13 +4439,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>181</v>
-      </c>
-      <c r="G140" t="s">
-        <v>182</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4816,13 +4463,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>20</v>
-      </c>
-      <c r="G141" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4842,13 +4487,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>181</v>
-      </c>
-      <c r="G142" t="s">
-        <v>182</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4868,13 +4511,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>20</v>
-      </c>
-      <c r="G143" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4894,13 +4535,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>181</v>
-      </c>
-      <c r="G144" t="s">
-        <v>182</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4922,11 +4561,9 @@
       <c r="F145" t="s">
         <v>11</v>
       </c>
-      <c r="G145" t="s">
-        <v>12</v>
-      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4946,13 +4583,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>189</v>
-      </c>
-      <c r="G146" t="s">
-        <v>190</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4972,13 +4607,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>20</v>
-      </c>
-      <c r="G147" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4998,13 +4631,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>189</v>
-      </c>
-      <c r="G148" t="s">
-        <v>190</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5024,13 +4655,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>20</v>
-      </c>
-      <c r="G149" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5052,11 +4681,9 @@
       <c r="F150" t="s">
         <v>11</v>
       </c>
-      <c r="G150" t="s">
-        <v>12</v>
-      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5076,13 +4703,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>196</v>
-      </c>
-      <c r="G151" t="s">
-        <v>197</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5102,13 +4727,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>20</v>
-      </c>
-      <c r="G152" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5128,13 +4751,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>196</v>
-      </c>
-      <c r="G153" t="s">
-        <v>197</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5154,13 +4775,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>20</v>
-      </c>
-      <c r="G154" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5180,13 +4799,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>196</v>
-      </c>
-      <c r="G155" t="s">
-        <v>197</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5206,13 +4823,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>20</v>
-      </c>
-      <c r="G156" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5232,13 +4847,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>196</v>
-      </c>
-      <c r="G157" t="s">
-        <v>197</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5258,13 +4871,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>20</v>
-      </c>
-      <c r="G158" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5284,13 +4895,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>196</v>
-      </c>
-      <c r="G159" t="s">
-        <v>197</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5310,13 +4919,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>20</v>
-      </c>
-      <c r="G160" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5336,13 +4943,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>196</v>
-      </c>
-      <c r="G161" t="s">
-        <v>197</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5364,11 +4969,9 @@
       <c r="F162" t="s">
         <v>11</v>
       </c>
-      <c r="G162" t="s">
-        <v>12</v>
-      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5388,13 +4991,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>209</v>
-      </c>
-      <c r="G163" t="s">
-        <v>210</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5414,13 +5015,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>20</v>
-      </c>
-      <c r="G164" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5440,13 +5039,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>209</v>
-      </c>
-      <c r="G165" t="s">
-        <v>210</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5466,13 +5063,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>20</v>
-      </c>
-      <c r="G166" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5492,13 +5087,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>209</v>
-      </c>
-      <c r="G167" t="s">
-        <v>210</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5518,13 +5111,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>20</v>
-      </c>
-      <c r="G168" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5544,13 +5135,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>209</v>
-      </c>
-      <c r="G169" t="s">
-        <v>210</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5570,13 +5159,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>20</v>
-      </c>
-      <c r="G170" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5596,13 +5183,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>209</v>
-      </c>
-      <c r="G171" t="s">
-        <v>210</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5624,11 +5209,9 @@
       <c r="F172" t="s">
         <v>11</v>
       </c>
-      <c r="G172" t="s">
-        <v>12</v>
-      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5648,13 +5231,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>221</v>
-      </c>
-      <c r="G173" t="s">
-        <v>222</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5674,13 +5255,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>20</v>
-      </c>
-      <c r="G174" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5700,13 +5279,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>221</v>
-      </c>
-      <c r="G175" t="s">
-        <v>222</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5728,11 +5305,9 @@
       <c r="F176" t="s">
         <v>11</v>
       </c>
-      <c r="G176" t="s">
-        <v>12</v>
-      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5752,13 +5327,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>227</v>
-      </c>
-      <c r="G177" t="s">
-        <v>228</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5778,13 +5351,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>20</v>
-      </c>
-      <c r="G178" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5804,13 +5375,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>227</v>
-      </c>
-      <c r="G179" t="s">
-        <v>228</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5830,13 +5399,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>20</v>
-      </c>
-      <c r="G180" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5856,13 +5423,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>227</v>
-      </c>
-      <c r="G181" t="s">
-        <v>228</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5882,13 +5447,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>20</v>
-      </c>
-      <c r="G182" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5910,11 +5473,9 @@
       <c r="F183" t="s">
         <v>11</v>
       </c>
-      <c r="G183" t="s">
-        <v>12</v>
-      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5934,13 +5495,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>236</v>
-      </c>
-      <c r="G184" t="s">
-        <v>237</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5960,13 +5519,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>20</v>
-      </c>
-      <c r="G185" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5986,13 +5543,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>236</v>
-      </c>
-      <c r="G186" t="s">
-        <v>237</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6012,13 +5567,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>20</v>
-      </c>
-      <c r="G187" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6038,13 +5591,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>236</v>
-      </c>
-      <c r="G188" t="s">
-        <v>237</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6064,13 +5615,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>20</v>
-      </c>
-      <c r="G189" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6090,13 +5639,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>236</v>
-      </c>
-      <c r="G190" t="s">
-        <v>237</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6116,13 +5663,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>20</v>
-      </c>
-      <c r="G191" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6142,13 +5687,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>236</v>
-      </c>
-      <c r="G192" t="s">
-        <v>237</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6168,13 +5711,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>20</v>
-      </c>
-      <c r="G193" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6194,13 +5735,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>236</v>
-      </c>
-      <c r="G194" t="s">
-        <v>237</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6220,13 +5759,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>20</v>
-      </c>
-      <c r="G195" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6246,13 +5783,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>236</v>
-      </c>
-      <c r="G196" t="s">
-        <v>237</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6272,13 +5807,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>20</v>
-      </c>
-      <c r="G197" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6300,11 +5833,9 @@
       <c r="F198" t="s">
         <v>11</v>
       </c>
-      <c r="G198" t="s">
-        <v>12</v>
-      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6324,13 +5855,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>253</v>
-      </c>
-      <c r="G199" t="s">
-        <v>254</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6350,13 +5879,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>20</v>
-      </c>
-      <c r="G200" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6376,13 +5903,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>253</v>
-      </c>
-      <c r="G201" t="s">
-        <v>254</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6402,13 +5927,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>20</v>
-      </c>
-      <c r="G202" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6428,13 +5951,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>253</v>
-      </c>
-      <c r="G203" t="s">
-        <v>254</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6456,11 +5977,9 @@
       <c r="F204" t="s">
         <v>11</v>
       </c>
-      <c r="G204" t="s">
-        <v>12</v>
-      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6480,13 +5999,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>14</v>
-      </c>
-      <c r="G205" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6508,11 +6025,9 @@
       <c r="F206" t="s">
         <v>11</v>
       </c>
-      <c r="G206" t="s">
-        <v>12</v>
-      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6532,13 +6047,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>20</v>
-      </c>
-      <c r="G207" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98731.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98731.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="288">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400224</t>
   </si>
   <si>
+    <t>Kline</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Kline. A quorum being present, the Committee on Education and the Workforce will come to order.    Good morning, everyone. I want to extend a warm welcome to the acting Secretary of Education, John King, who is with us to discuss the policies and priorities of the Department of Education. Dr. King has been at the helm of the Department since January and was recently nominated by the President to serve as the next Secretary of Education.    And congratulations on your nomination, Dr. King.    We understand this is the beginning of a busy week for you on Capitol Hill, back to the aforementioned nomination. You graciously agreed to join us today to speak broadly about the Department's priorities, and you will return tomorrow to discuss, specifically, the Department's efforts regarding the Every Student Succeeds Act.    Replacing No Child Left Behind was a leading priority of this committee for many years. We are eager to learn how the Department plans to implement the new law in a way that adheres to the letter and intent of the law. While that's a conversation we will have in more detail tomorrow, it does reflect in some ways on today's hearing. In fact, as we consider the work that lies ahead this year, there are two lessons we can learn from our efforts to improve K-12 education.    First, the American people want commonsense reforms that empower individuals, not Federal bureaucrats. Families across the country face a number of difficult challenges, including stagnant wages, rising college costs, and a lack of full-time jobs.    Unfortunately, the response by many in Washington is to call for more government, more programs, more spending, more rules, more regulations. We've tried this top-down approach for years, and it really hasn't worked. It's time we look for other opportunities to provide more authority and flexibility to the States and local communities while also ensuring a more limited and accountable Federal Government.    Second, we have shown what's possible when we work together in good faith for the common good. We saw a problem, agreed the status quo wasn't working, and came together to enact a practical solution. Both sides brought to the table very different ideas and principles, but we were able to hold onto our principles and still find common ground. Because we did, we delivered real results for the American people, and they expect similar results in the months ahead.    It's for these reasons many of us are disappointed with the President's budget request. It would provide the Department with tens of billions of dollars in new spending to create and administer new entitlement programs as well as numerous new competitive grant programs that put the Department in charge of picking winners and losers. This additional burden to the taxpayer would not provide students and families a more efficient, effective, and accountable agency. Instead, these dollars would be used to grow an already bloated bureaucracy.    No doubt these proposals are well intended, but they will ultimately divert limited taxpayer resources away from existing services that are vitally important to low- and middle-income families.    The American people aren't interested in continuing the same failed policies, but that's precisely what this budget would do. It doubles down on the false hope that the Federal Government can create the opportunity and prosperity families desperately need. We know there's a better way. We recently proved there's a better way. There are a number of issues that deserve our attention, such as expanding access to an affordable college education, improving career and technical education, and the successful implementation of our recent reforms to K-12 education.    Dr. King, I hope we can work together on these and other important issues in a way that builds on our recent success by placing less faith in the schemes of Washington and more faith in the American people.    With that, I will now recognize Ranking Member Scott for his opening remarks.</t>
   </si>
   <si>
     <t>400364</t>
   </si>
   <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, Mr. Chairman, for holding the hearing today. And I know some of my colleagues were taken aback when the House and Senate Budget Committees declined, apparently for the first time ever, to invite the administration to give testimony about the President's budget request for FY 2017. I'm glad we have taken a better approach to the annual budget process in this committee, and I know that there are things in this budget that we can agree on and others that we won't agree on. That doesn't mean we shouldn't talk those issues out. I'm glad, Mr. Chairman, that we're having an opportunity to do that today.    I want to welcome the acting Secretary here today as well. We will be seeing a lot of him this week as we hold another hearing tomorrow on the implementation of the Every Student Succeeds Act. Although he will only be in the Department for about a year, that has the potential of being a very transformational year in that it comes at the time when we oversee early learning, elementary and secondary education, and higher education in this country. I know he's up to the challenge, and I look forward to his testimony today.    Our Nation's budget reflects its priorities. I think it's safe to say that the budget request we have before us today from the Department is proof that education remains a top priority for the Obama administration. This year's request includes an additional $1.3 billion, a 2 percent increase, for programs at the Department of Education. At the same time, through a combination of savings from both spending and revenue sides of the budget, the administration's overall budget request reduces the deficit from 3.3 percent of GDP to 2.6 percent.    Mr. Chairman, the request we have before us is, therefore, proof that we can increase the amount we spend on education in a responsible way without running higher deficits. The Federal investment in education is a crucial component of our national strength and competitiveness in the 21st century. That investment begins in early childhood, and this year's request continues to prioritize early childhood education. We can and should provide high-quality early childhood education for all 4-year-olds, and this budget continues to call for us to do just that.    The budget requests builds on the bipartisan work we did on ESSA, and most programs in the bill are at or above the levels authorized in that law. The budget includes multiple programs designed to reduce the cost of higher education, with particular focus on first-generation and low-income students.    I had the honor of working with the Department last year on its America's College Promise proposal to make 2 years of community college the new norm for all students. I was happy to see that the budget request this year reflected modifications we worked on together to include first-generation students and minority-serving institutions as beneficiaries from the ACP program.    The budget request recognizes that investing in teachers and lifting up the teaching profession is essential in improving educational outcomes nationally. If we are going to ensure that every child in every classroom has a highly effective teacher, we have to build pathways to train those teachers and school leaders and provide incentives necessary for them to take the most challenging positions where they are most needed.    Now, there are some questions I have about some of the choices made in the budget. I believe we should do more to increase the maximum Pell Grant award and help to defray the cost of higher education, especially when we make a sizable profit off student loans. There are certain programs authorized on the ESSA that receive 30 percent or higher increases over negotiated authorization levels.    On the whole, I support the President's budget, especially when compared to the alternative. And I say that because the alternative has yet to present itself. For some reason, the Speaker has chosen to expedite the budget process this year, but we still haven't seen the actual proposal from the majority. Last year's majority proposal included $103 billion in cuts in education over 10 years. That translated into significant cuts in Title I, funding for the Individuals with Disabilities Education Act, cuts in Head Start, cuts in Pell Grants. And if the choice is between a Republican budget like last year's and the President's request, I'll take the President's request.    This budget season we will have tough choices to make as the Congress, choices that reflect our values. I think this budget request we have before us strikes the right balance and recognizes that money we spend on education comes back to the country many times over. We need to make crucial investments today if we expect to lead the world on education for decades to come.    So, Mr. Chairman, thank you, and I yield back.</t>
   </si>
   <si>
@@ -73,6 +88,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>King</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. King. Thank you very much. Good morning. Chairman Kline, Ranking Member Scott, and members of the committee, thank you for inviting me to discuss the Department's 2017 budget. I look forward to building on our bipartisan collaboration as we implement the Every Student Succeeds Act and solve important challenges in public education.    This first year, we are focused on three principles: first, ensuring every child has the opportunity to earn an excellent education; second, supporting our Nation's teachers and elevating the teaching profession; and, third, improving access, affordability, and completion in higher education.    These principles, along with my own experiences working in public education, inform the ideas in our 2017 budget proposal. Before joining the Department, I led the New York State Department of Education and served as the managing director of Uncommon Schools, a network of high-achieving charter schools. I began my career as a high school social studies teacher and cofounded one of the highest-performing middle schools in Massachusetts.    I'm also the proud parent of two public school students, and these experiences inspire every decision that I make at the Department.    While this budget is focused on the challenges ahead of us, I also want to acknowledge the remarkable gains we are seeing. High school graduation rates are at an all-time high and dropout rates are falling. We have the largest and most diverse classes enrolling and completing higher education. The numbers of African American and Latino college students are up by more than a million since 2008.    The Department's 2017 budget builds on that progress in important ways. It would strengthen formula programs at the heart of the Every Student Succeeds Act and invest in next-generation high schools and career and technical education. It ensures that our youngest learners get a strong start in school through President Obama's landmark Preschool for All initiative and capitalizes on teacher leadership by helping them achieve their ideas in the schools where they are needed most, and brings computer science to every classroom in this country.    Through the new Stronger Together program, we would help school and district leaders create more high-achieving, socioeconomically diverse classrooms and schools. All students benefit from learning with classmates from different economic backgrounds, and all students should have that opportunity.    The programs in our 2017 budget would also make higher education more affordable and help more students earn their college degrees. America's College Promise would make community college free for all students, an idea that is proving its potential in communities from Tennessee to Long Beach, California. This budget would also drive innovations in Pell Grants by supporting students that take summer classes and at least 15 credits per semester and reward institutions with high completion rates.    We need new strategies for helping students earn their degrees, and through First in the World and the HBCU Innovation for Completion Fund, we would help colleges translate their ideas into better outcomes for their students.    This budget leverages local leadership, the source of strength of our Nation's education system, to help more students succeed. But I also know that there are places where leaders are not living up to their responsibilities.    Last year, I visited a community where five local schools had become socioeconomically and racially isolated and under-resourced failure factories, to borrow a term from a local newspaper. There, we met desperate families, dejected teachers, and students that questioned whether the adults in their lives really care.    I contrast that visit with the excellent schools I've seen in communities from Houston to Wilmington to Miami. I've met countless engaged students who know that, thanks to the educators in their lives, their destiny will not be determined by where they were born.    The Department's 2017 budget would support local and State-led efforts to create many more places where students know their education and their future is in their own hands. I look forward to discussing these ideas with you in more detail and would be happy to answer your questions. Thank you.</t>
   </si>
   <si>
@@ -109,6 +127,12 @@
     <t>412310</t>
   </si>
   <si>
+    <t>Roe</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Roe. Thank you, Mr. Chairman.    Dr. King, good luck on your confirmation. I'm from the great State of Tennessee. We do fund our colleges based on graduation rates, not on heads and beds. And we also have provided free community college and technical college. As you know, we've had the greatest gains in K through 12 than any State in the Union. People should be looking at that.    What I want to talk about today with you, and I really want to work with the Department on this, and probably you have read this, but Dr. Nick Zeppos at Vanderbilt has ``Recalibrating Regulations of Colleges and Universities.'' I'm just going to go over a few things quickly about the incredible costs that are placed on colleges to comply with Federal regulations.    Basically, regulations that, for instance, in 1997, at Stanford University, 7.5 percent of the tuition was to comply with Federal regulations. In Vanderbilt University, in 2014, 11 percent, or $150 million, that's $11,000 per student, just to comply with Federal regulations. That's one of the ways we could have more money, is to decrease the amount of regulatory burden we placed on these colleges and universities. Thirty-three percent increase in the last 10 years in compliance officers in colleges. And this is public data.    Regulations are overly complex. In at least one case, a guidance document meant to clarify uncertainty led to more confusion. In 2011, a ``dear colleague'' on Title IX responsibilities for sexual harassment contained all these complex mandates, and then when they had to explain just that, it was a 53-page document that people had to go through.    The colleges are required to have selective service registration. Not that these are not important, but this is something a college probably shouldn't be doing. Voter registration requirements, peer-to-peer file sharing, foreign gift reporting. I mean, on and on, I could go on and on.    Timely. Let me give you this one. In May of 2013, Yale University was ordered to repay financial aid funds based on the Department of Education audit undertaken in 1996. The University of Colorado received a similar demand based on a 1997 audit. And even though the universities appealed in a timely fashion, it took 17 and 16 years, respectively, for the Department to act. That's ridiculous, and it's expensive, because they are, again, doing all these things.    2004, the Department investigated Yale for the Clery Act reporting violation, that's sexual harassment on campus, 2001 and 2002, but the fine wasn't issued until 2013. So I could go on and on with that.    Another thing is a barrier to innovation, these requirements are. Vanderbilt gave up its online programming because of the extensive requirements in several States. In North Carolina, they just threw the hat in. And in California, the State of California projected the cost of developing and implementing a new data system required to meet regulatory requirements at $233 million just for California alone. That would have much been better than IDEA or other things that we could have spent money on. As we have all said, the resources are limited.    So I want to work with you. This is a great document. Have you read this document?</t>
   </si>
   <si>
@@ -142,6 +166,12 @@
     <t>400179</t>
   </si>
   <si>
+    <t>Hinojosa</t>
+  </si>
+  <si>
+    <t>Rubén</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hinojosa. Thank you, Chairman Kline. I have some prepared remarks here, and I want to certainly ask the questions.    Dr. King, thank you for coming to speak to our committee, and it's a pleasure to hear your education priorities on this 2017 budget that is certainly going to be discussed the rest of this month and maybe longer. But I want to say that in seeing the materials that were given to us by staff, I am very concerned.    You made the statement that the HBCUs are a very important component of higher education, and I have been one of the strongest supporters of HBCUs. In fact, as chairman of the Congressional Hispanic Caucus, I met with the Black Caucus and the Hispanic Caucus leaders, as well as the Asian Pacific, and we came to an agreement that we were going to all work together to help all minority-serving institutions.    But in looking at your proposed budget here, increasing 245 million for strengthening HBCUs, and seeing the increase in the student population of HSIs, the numbers that are enrolling since 2010 with the reconciliation of higher education went up 30 percent, and yet you have nothing in here increasing the investment in both the HSIs and the Asia-Pacific colleges and universities as we requested of President Obama when we met with him at the White House.    And furthermore, you have to realize that if we don't speak up, I don't think that the government and, certainly, the Congress is going to increase it, because we had to fight for 20 years to get the kind of increases we got in 2010.    Now, HSIs were reduced 2 years ago in their Federal investment, and I'm very concerned, and you need to explain to me why you left out the other two groups.</t>
   </si>
   <si>
@@ -163,6 +193,12 @@
     <t>412317</t>
   </si>
   <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>Glenn</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Thompson. Thank you, Chairman.    Dr. King, thank you so much for being here. Good luck, best wishes, for your confirmation process with the Senate.</t>
   </si>
   <si>
@@ -187,6 +223,12 @@
     <t>400162</t>
   </si>
   <si>
+    <t>Grijalva</t>
+  </si>
+  <si>
+    <t>Raúl</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Grijalva. Thank you, Mr. Chairman.    And thank you for being here, Dr. King. I appreciate it very much. And best of luck on your confirmation.    In this President's budget we once again see an increase in the funding for charter schools. And given all the discussion that goes back and forth on that concept, whether it's for-profit or public charters, that we've seen in the past, one of the questions that I have, that I think is something that I think lags behind in the effort to increase the funding at a time when some of the categorical programs are losing funding and traditional public schools are losing funding, how will the Department ensure that there's some really basic accountability to these entities?    How will these entities communicate to students and parents that make the choice to enter a charter school, everything from financial disclosure, what is proprietary and not in terms of the entities that run these, and regulatory issues, the public's right to know, public disclosure, public meetings, so that people can attend and know what is outside of a financial boardroom but is in a public setting?    These are questions I think that as we move forward in the initiatives of this administration on charter schools that lagging behind is the taxpayer accountability as to how this money is being used. And what do you propose in that area in general?    And before you answer, let me just indicate to you, Dr. King, let me associate myself with Mr. Hinojosa's comments relative to minority-serving institutions as a whole.    Sir?</t>
   </si>
   <si>
@@ -208,6 +250,12 @@
     <t>412213</t>
   </si>
   <si>
+    <t>Walberg</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Walberg. Thank you, Mr. Chairman.    And thank you, Secretary, for your willingness to come today.    I want to ask questions about a program that you are now responsible for, caring for, and undertaking. It's a program that I must admit right from the get-go I don't support. I think it is ill-advised. It is top-down management of a set of indicators that I don't think we can do effectively from the Federal level, and that's the College Scorecard.    Is the goal of the College Scorecard, in your mind, to determine which colleges and universities are legitimate?</t>
   </si>
   <si>
@@ -241,6 +289,12 @@
     <t>412327</t>
   </si>
   <si>
+    <t>Fudge</t>
+  </si>
+  <si>
+    <t>Marcia</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Fudge. Thank you very much, Mr. Chairman.    And thank you, Dr. King, for being here. Certainly, I am confident that the Senate will see your stellar qualifications and confirm you, so we are just going to claim that.    I too do want to just agree with my colleague, Representative Grijalva, about my concern of accountability for charter schools. Obviously, I'm from the State of Ohio, where our State purposefully, knowingly, sent misleading information to the Federal Government about our charter schools. So I know what it's like.    Dr. King, last year, Congressman Gibson, Senators Portman and Warner, and myself introduced the Go to High School, Go to College Act, which allows students in dual enrollment in early college programs to access Pell Grant dollars while still in high school. In October 2015, the Department announced a pilot program to allow high school students the opportunity to access Federal Pell Grants to take college courses through dual enrollment.    What funding is in the fiscal year 2017 education budget for early Pell and dual-enrollment programs, and what is that status of the Department's pilot program?</t>
   </si>
   <si>
@@ -289,6 +343,12 @@
     <t>400606</t>
   </si>
   <si>
+    <t>Salmon</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Salmon. Thank you.    Welcome, Dr. King.</t>
   </si>
   <si>
@@ -316,6 +376,12 @@
     <t>400433</t>
   </si>
   <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Wilson. Thank you.    I also want to know if you can speak to how the President's budget takes steps towards training and attracting more diverse school leaders.</t>
   </si>
   <si>
@@ -334,6 +400,12 @@
     <t>400643</t>
   </si>
   <si>
+    <t>Foxx</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Foxx. Thank you, Mr. Chairman.    And thank you, Mr. Secretary for being here. I have several questions for you. I'd be happy for you to answer with any time that's remaining, but will ask for a written response for questions you're not able to answer here today.    I'm very concerned about what's happening within your Department's Office for Civil Rights and its impact on college campuses across the country. For too long the OCR has gone around Congress by legislating a new mission, and I'm deeply concerned about the office's legitimacy and effectiveness on these issues and the potential negative impact on students and institutions. The office has used the Dear Colleague letter process, an implied threat of investigation that would result in the loss of Federal funds as a way to require action by institutions.    Anything that can result in an expensive and protracted investigation should be established by Congress through law. And I'm very concerned that a number of the office's actions encroach on our constitutional authority to make laws. The office should follow the regulatory process that provides ample time for notice and comment. There are significant issues that should be addressed by stakeholders before the Department makes a unilateral decision on how to address certain issues. And, again, individual circumstances matter greatly.    To that end, these are questions. How many of the Dear Colleague letters that have been issued over the past 6 years were reviewed to determine they should have been submitted for notice and comment? How many of those letters have had notice and comment period prior to issuance? Who makes that determination? Who's consulted about these significant changes prior to the letters being written?    I'd also like to know what you plan to do to ensure this process is reformed to give all relevant stakeholders time to weigh in to ensure any new rules are the best way to prevent discrimination in our schools and on campus.    Further, the Office of Civil Rights is busy touting how many sexual assault cases it has opened, but the number of cases isn't as important as providing justice in each individual case. Many are concerned that the office's current approach is counterproductive to reaching a just resolution, as well as being costly and efficient.    How were these cases brought to the Department? How many of the cases before the office have been closed? How long does it take to close these cases? And are you publishing that information along with the findings in each case while ensuring that you're protecting student privacy?    And last, the President's budget includes a sizeable increase in funding for student aid administration. However, at a November hearing we heard testimony that FSA is not meeting its statutory obligations to be accountable for its operations or meet its mandated planning and reporting requirements. How do you plan to ensure FSA is acting as an effective partner with institutions as its PBO status requires?    So I welcome you to answer these. But I also would like a written response to any you're not able to answer, by March 1. Thank you very much.</t>
   </si>
   <si>
@@ -355,6 +427,12 @@
     <t>412501</t>
   </si>
   <si>
+    <t>Bonamici</t>
+  </si>
+  <si>
+    <t>Suzanne</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bonamici. Thank you, Mr. Chairman.    Congratulations, Dr. King, on your nomination. I wish you an expeditious path through that process.    I know today is budget and tomorrow is Every Student Succeeds Act. But I want to for a moment follow up on Ms. Wilson's comments about the Student Support and Academic Enrichment Grant program. You know, we authorized $1.65 billion for these formula block grants, but the Department budget requests only about a third of that amount and also proposes making the grants competitive. The distribution formula was designed to protect against some of the concerns of consolidating programs. So I'm concerned about that.    So I have a two-part question. First, can you talk about the disruption that could be caused by making these grants competitive? There's a lot of potential from these formula grants to sustain meaningful changes.    And second, I appreciate the challenges of designing a budget that adequately funds programs. But I must tell you, I'm currently circulating a letter to my colleagues urging their support in an attempt to fully fund this program at its authorized level. So are you confident that these additional dollars, if we are successful in that request, will be put to good use in our local school districts?    So the concern about the disruption and will these dollars be put to good use. And I do want to save time for a higher ed question quickly.</t>
   </si>
   <si>
@@ -376,6 +454,12 @@
     <t>412426</t>
   </si>
   <si>
+    <t>Rokita</t>
+  </si>
+  <si>
+    <t>Todd</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rokita. Thank the chairman.    Acting Secretary King, thanks for being here today. I'm currently chairing the kindergarten to 12th grade subcommittee, and look forward to working with you. Just so know, my office is always open, the phone's always available for you. That's the relationship I had with your predecessor, and I offer it to you here publicly.</t>
   </si>
   <si>
@@ -451,6 +535,12 @@
     <t>412600</t>
   </si>
   <si>
+    <t>Clark</t>
+  </si>
+  <si>
+    <t>Katherine</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Clark. Thank you, Mr. Chairman.    And thank you, Mr. Secretary, for being here today.    I want to turn towards the preschoolers and early education, and specifically parts B and C of the IDEA Act. As you know, they are absolutely critical to addressing the needs of our young children from birth through age 5 who experience learning challenges, including, you know, they provide support for preschools as well as State infrastructure for early screening, referral, and intervention. I was delighted to see a modest increase. You know these programs could use even more, but we are grateful for the Department in doing that.    Can you address the priorities in the area of early education, but specifically for young children with disabilities?</t>
   </si>
   <si>
@@ -469,6 +559,12 @@
     <t>412446</t>
   </si>
   <si>
+    <t>Heck</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Heck. Thank you, Mr. Chair.    And thank you, Secretary, for being here.    I represent the Clark County School District in southern Nevada, which is the fifth-largest school district in the country, which presents its own unique challenges. But one of the bright spots that we have is our career and technical education programs, which provide for very engaged students, passionate teachers, and much higher graduation rates than the general population.    CTE has that ``hold harmless'' provision in it that was based on 1998 funding levels, which disproportionately impact States that experienced rapid growth, like Nevada, in the ensuing 18 years. A prior budget proposal would have shifted money from CTE to another program, which would have then invoked the ``hold harmless'' provision. I was glad that proposal was not followed and has not reappeared. But I remain concerned about that provision.    Can you tell me what ideas you have to ensure adequate and equitable distribution of CTE funding to all States based on current populations and need?</t>
   </si>
   <si>
@@ -490,6 +586,12 @@
     <t>412308</t>
   </si>
   <si>
+    <t>Polis</t>
+  </si>
+  <si>
+    <t>Jared</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Polis. Thank you, Mr. Chairman. Well, I have three questions for the Secretary.    And I'll give them all to you, and then hopefully you'll have time to respond.    First of all, thank you so much for coming before us and thank the Obama administration for putting forward a great budget in this area. I especially want to thank you for the administration's proposed funding increase for the Charter School Program requested at $350 million. As you know, the administration also supported the recent omnibus bill that had an increase of $80 million of plus-up for fiscal year 2016 funding for charter schools, and I'm pleased to see the support will continue under your leadership.    My three questions are, first, open education. Last year, the Department indicated that access to open education resources would be a priority for the Department's Office of Education Technology. We see great opportunities to save students money on textbooks, particularly at the higher ed level, and I'd like you to address how the President's budget request continues the Office of Ed Tech's commitment to increasing access to open resources and ensuring materials created with grants from the Department are available to the public under an open license. That's the first one.    Second question, a few people have addressed, have brought up the importance of summer Pell. I want to lend my voice to that. I spoke with students in Boulder and Fort Collins at CSU and CU about access to Pell Grants in the summer. I was hoping you could briefly address how the administration's request for funding summer Pell is important for students and your plans in that area.    And then finally, dual enrollment. We're very excited in Colorado, we found that a student is 23 percent more likely to attend college if they took dual-enrollment classes in high school. That is a class that is offered usually through a community college for college credit. It's a great way to get low-income kids or first-generation college-goers to access college, sometimes even earn an associate's degree concurrent with their high school degree.    What is the Department doing and what can the Department do to support the growth of these programs, and what can Congress do to ensure that more students have access to dual-enrollment programs and access to low-cost or no-cost for-credit college courses while they're in high school?</t>
   </si>
   <si>
@@ -511,6 +613,12 @@
     <t>412278</t>
   </si>
   <si>
+    <t>Guthrie</t>
+  </si>
+  <si>
+    <t>Brett</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Guthrie. Thank you, Mr. Chairman.    Thank you, Mr. Secretary for being here. Appreciate you being here today.    We've received some reports that the Federal Student Aid, FSA, and the Office of Postsecondary Education, OPE, do not always communicate effectively, and, in general, most offices within the Department are siloed from each other, which harms coordination and efficiency. This came to a head in November when former Secretary Duncan sent a memo to FSA and to OPE instructing them to find a better process for communicating effectively in regards to accreditation issues.    How did this communication become so ineffective it required a memo from the head of the agency? And then what are you doing within the Department to make the communication practices effective overall, better overall?</t>
   </si>
   <si>
@@ -532,6 +640,12 @@
     <t>412607</t>
   </si>
   <si>
+    <t>Adams</t>
+  </si>
+  <si>
+    <t>Alma</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Adams. Thank you, Mr. Chair.    And, Dr. King, thank you for testifying today and for speaking with the Bipartisan HBCU Caucus a few weeks ago. It was a pleasure to have you there and to know that we have a bipartisan group of members on both sides of the aisle who are very interested in this issue. I'm encouraged as well that you will do well with your confirmation, and congratulations.    As you know, and many of my colleagues know, HBCUs have been a priority of mine for a while. So I was pleased to see the new HBCU/MSI Innovation for Completion Fund, and within it the First in the World Program and the support for HBCUs. So could you talk a little bit more about the decision to create the program and support for HBCUs and ways that the Department can work to address the funding discrepancies that have historically existed for these schools?</t>
   </si>
   <si>
@@ -550,6 +664,12 @@
     <t>412540</t>
   </si>
   <si>
+    <t>Messer</t>
+  </si>
+  <si>
+    <t>Luke</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Messer. Thank you, Chairman.    Congratulations, Dr. King. It's great to have you here.    I want to start with a thank you and then a request for help. The thank you comes with your predecessor and your team back in September, the Federal Department of Education was very helpful to charter schools in Indiana. And I sent a letter in late September, that you may well be aware of, where it was determined that there were $2.3 million in cuts to Indiana's public charter schools, and at a time when you didn't have similar cuts to the other public charter schools.    In immediate response to that letter, the Indiana Department of Education reached out to the Federal Department of Education, and you guys very clearly and very quickly told them that their calculations were wrong and that they needed to do something about it. In fact, you set up a meeting in late September of those principals to charter schools, the State Board of Education and the Indiana Department of Education, to discuss that. So thank you. Thank you for your prompt action there.    Now, this was where my request for help comes in, because since that time there's been radio silence. You know, it's not fair that we would penalize public school students who choose to go to charter schools. And if we care about these kids, we need to do something about it.    And so I have a couple quick questions. One, are you aware of whether the Federal Department of Education has had any follow-up with the Indiana Department of Education on this issue?</t>
   </si>
   <si>
@@ -586,6 +706,12 @@
     <t>412520</t>
   </si>
   <si>
+    <t>Takano</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Takano. Thank you, Mr. Chairman.    Mr. Secretary, good morning, I guess. With all the destruction of students' financial futures caused by big predatory for-profit colleges, and with so many of the students now claiming fraud and demanding debt relief that could cost taxpayers billions of dollars, with mounting law enforcement investigations of these same companies, and with some of these companies themselves in irresponsible, precarious financial shape, does the Department think it makes sense to keep sending these companies billions of our taxpayer dollars and sending our students there?    Are you taking a harder look at the continued eligibility of some of these companies for Title IX aid?</t>
   </si>
   <si>
@@ -619,6 +745,12 @@
     <t>412648</t>
   </si>
   <si>
+    <t>Stefanik</t>
+  </si>
+  <si>
+    <t>Elise</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Stefanik. Thank you, Mr. Chairman.    Dr. King, thank you for joining us today.    I wanted to focus my question on higher ed. The district I represent in the north country in New York State, I consistently hear from students, financial aid administrators, concerned parents that our financial aid system is overly complex and nonintuitive. And I believe that instead of confusing students, our aid system should enable individuals to quickly attain the skills necessary to work and to contribute to our economy.    Which is why last year, along with my colleagues, Mr. Curbelo and Mr. Hinojosa, I introduced the Flexible Pell Grant for 21st Century Students Act. And I thank you for your positive comments on the year-round Pell bill. And I also want to thank my colleagues, Ms. Clark and Mr. Polis, for their positive comments on year-round Pell, and I encourage them to cosponsor this bill.    Not only does this bill encourage students to complete their degrees at an accelerated pace, but the bill also directs the Secretary to provide annual financial aid reports to Pell students to help them make the right financial decisions for their unique situation.    So my question for you is, in the year ahead, how do you intend to ensure that we are providing all students with the necessary counseling, especially those most in need as they navigate postsecondary education with a very complex student loan repayment program?</t>
   </si>
   <si>
@@ -634,6 +766,12 @@
     <t>400097</t>
   </si>
   <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Davis. Thank you, Mr. Chairman.    And thank you, Dr. King, for being here and for taking on this critical leadership position.    I wanted to ask you particularly about teachers. I'm afraid I'm doing double duty here today, so I was in another committee. It's my understanding that you haven't spoken too much about teachers today, and we know that they're absolutely critical in a student's achievement and personal future.    One of the issues that's critical is around teacher diversity and making sure that people understand why this is important. So perhaps you could address that.    The other is in California, particularly, we're looking at a teacher shortage that's significant. And many retired teachers understand why that's true. And, in fact, a recent article basically said that most retired teachers would never recommend to their kids that they become teachers.    Now, that's something that we have to be very concerned about. And sometimes people see this, I think, as a State issue, a local issue, one that the Federal Government ought not be involved in. So I wonder if you could address that as well.    And then in terms of teacher professionalism initiatives, what are the key initiatives that you would like to not just engage in, but you would like to see your time in office that really raises the professionalism of teachers? What are the current programs? What more -- what can be done? Because as we all know, teachers are concerned that if they take on some of the leadership roles within schools that they would be taken out of their classroom even, and those are dedicated teachers who don't want to do that.</t>
   </si>
   <si>
@@ -658,6 +796,9 @@
     <t>412661</t>
   </si>
   <si>
+    <t>Grothman</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Grothman. Obviously, student debt is a huge problem out there. Are you in favor of allowing students to refinance their debt at a lower interest rate?</t>
   </si>
   <si>
@@ -704,6 +845,12 @@
   </si>
   <si>
     <t>412635</t>
+  </si>
+  <si>
+    <t>Bishop</t>
+  </si>
+  <si>
+    <t>Mike</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Bishop. Thank you, Mr. Chair.    Mr. Secretary, thank you for being here today. Thank you for your testimony. You certainly have outlasted the rest of the committee. Congratulations on that.    I have just one question, in fact, and I wanted to get your input, if I could, on the Department of Labor's proposed overtime rule and really your input as to what I've been hearing from a lot of folks in the education community that it would have a dramatic effect on higher ed all the way down to our local school districts.    Just specifically, I've heard from a number of small colleges in my home State of Michigan about the potential negative impacts of this new rule. One college, very small, 1,700 students, told me they could face up to a million-dollar increase in costs per year under this new rule.    There are other examples across the country. As I looked into the issue, I found the university system of Maryland, for example, estimates that they could see an increase in costs of up to 40 million in just the first year. The University of Florida, which has 12 universities in all, faces a cost of 62 million annually -- $62 million. Community colleges in Iowa estimate that this rule would have raised -- could have raised their costs in 2016 so far up to $12.6 million. That's just in the first quarter. There are so many examples, and I won't get into all of them because we have limited time, but it's of great concern.    I should note that the rule will also have negative impacts on school employees. Many of them will be reclassified as hourly employees to try and deal with this rule. That would be considered by most as a demotion. The rule would also limit opportunities in the workplace, such as flexible schedules and career development.    And, obviously, too this has a huge impact on the other side too, increasing costs for colleges and universities at all levels, and that trickles all the way down to everybody who's got to pay for colleges, students, parents, and it's really having a hugely devastating effect.    And I'm not certain that this was intended to be the case, but I do know that it is the case, and I just wondered if you could give me some of your thoughts about the proposed rules and some of these issues that have been raised.</t>
@@ -1079,7 +1226,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H207"/>
+  <dimension ref="A1:I207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1087,7 +1234,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1109,4949 +1256,5822 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
         <v>18</v>
       </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
         <v>18</v>
       </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
       <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
       <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G22" t="s">
+        <v>37</v>
+      </c>
       <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G24" t="s">
+        <v>37</v>
+      </c>
       <c r="H24" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
+      <c r="H26" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>49</v>
+      </c>
+      <c r="G28" t="s">
+        <v>50</v>
+      </c>
       <c r="H28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="I28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>49</v>
+      </c>
+      <c r="G30" t="s">
+        <v>50</v>
+      </c>
       <c r="H30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="I30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>49</v>
+      </c>
+      <c r="G32" t="s">
+        <v>50</v>
+      </c>
       <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="I32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G34" t="s">
+        <v>59</v>
+      </c>
       <c r="H34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G36" t="s">
+        <v>59</v>
+      </c>
       <c r="H36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>48</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G38" t="s">
+        <v>59</v>
+      </c>
       <c r="H38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G39" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G41" t="s">
+        <v>69</v>
+      </c>
       <c r="H41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G42" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G43" t="s">
+        <v>69</v>
+      </c>
       <c r="H43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G44" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>56</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G45" t="s">
+        <v>69</v>
+      </c>
       <c r="H45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
       <c r="H46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>63</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G47" t="s">
+        <v>78</v>
+      </c>
       <c r="H47" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G48" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>63</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G49" t="s">
+        <v>78</v>
+      </c>
       <c r="H49" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G50" t="s">
+        <v>24</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>63</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G51" t="s">
+        <v>78</v>
+      </c>
       <c r="H51" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G52" t="s">
+        <v>24</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>63</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G53" t="s">
+        <v>78</v>
+      </c>
       <c r="H53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G54" t="s">
+        <v>24</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>63</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G55" t="s">
+        <v>78</v>
+      </c>
       <c r="H55" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
       <c r="H56" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>74</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G57" t="s">
+        <v>91</v>
+      </c>
       <c r="H57" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G58" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>74</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G59" t="s">
+        <v>91</v>
+      </c>
       <c r="H59" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I59" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G60" t="s">
+        <v>24</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>74</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G61" t="s">
+        <v>91</v>
+      </c>
       <c r="H61" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I61" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G62" t="s">
+        <v>24</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>74</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G63" t="s">
+        <v>91</v>
+      </c>
       <c r="H63" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G64" t="s">
+        <v>24</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>74</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G65" t="s">
+        <v>91</v>
+      </c>
       <c r="H65" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I65" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G66" t="s">
+        <v>24</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>74</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G67" t="s">
+        <v>91</v>
+      </c>
       <c r="H67" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I67" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G68" t="s">
+        <v>24</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>74</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G69" t="s">
+        <v>91</v>
+      </c>
       <c r="H69" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I69" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>74</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G70" t="s">
+        <v>91</v>
+      </c>
       <c r="H70" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I70" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
       <c r="H71" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>90</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G72" t="s">
+        <v>109</v>
+      </c>
       <c r="H72" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I72" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G73" t="s">
+        <v>24</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>90</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G74" t="s">
+        <v>109</v>
+      </c>
       <c r="H74" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I74" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G75" t="s">
+        <v>24</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>90</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G76" t="s">
+        <v>109</v>
+      </c>
       <c r="H76" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I76" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G77" t="s">
+        <v>24</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>90</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G78" t="s">
+        <v>109</v>
+      </c>
       <c r="H78" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I78" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>13</v>
+      </c>
       <c r="H79" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I79" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>18</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G80" t="s">
+        <v>24</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>99</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>119</v>
+      </c>
+      <c r="G81" t="s">
+        <v>120</v>
+      </c>
       <c r="H81" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>121</v>
+      </c>
+      <c r="I81" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G82" t="s">
+        <v>24</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>99</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>119</v>
+      </c>
+      <c r="G83" t="s">
+        <v>120</v>
+      </c>
       <c r="H83" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>121</v>
+      </c>
+      <c r="I83" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G84" t="s">
+        <v>24</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>13</v>
+      </c>
       <c r="H85" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I85" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>105</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G86" t="s">
+        <v>128</v>
+      </c>
       <c r="H86" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I86" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>105</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G88" t="s">
+        <v>128</v>
+      </c>
       <c r="H88" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I88" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G89" t="s">
+        <v>24</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>105</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G90" t="s">
+        <v>128</v>
+      </c>
       <c r="H90" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I90" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G91" t="s">
+        <v>24</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
       <c r="H92" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>112</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>136</v>
+      </c>
+      <c r="G93" t="s">
+        <v>137</v>
+      </c>
       <c r="H93" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I93" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G94" t="s">
+        <v>24</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>112</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>136</v>
+      </c>
+      <c r="G95" t="s">
+        <v>137</v>
+      </c>
       <c r="H95" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I95" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G96" t="s">
+        <v>24</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>112</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>136</v>
+      </c>
+      <c r="G97" t="s">
+        <v>137</v>
+      </c>
       <c r="H97" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I97" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>13</v>
+      </c>
       <c r="H98" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I98" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>119</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="G99" t="s">
+        <v>146</v>
+      </c>
       <c r="H99" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I99" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G100" t="s">
+        <v>24</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>119</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="G101" t="s">
+        <v>146</v>
+      </c>
       <c r="H101" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I101" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G102" t="s">
+        <v>24</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>119</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="G103" t="s">
+        <v>146</v>
+      </c>
       <c r="H103" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I103" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G104" t="s">
+        <v>24</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>119</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="G105" t="s">
+        <v>146</v>
+      </c>
       <c r="H105" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I105" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G106" t="s">
+        <v>24</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>119</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="G107" t="s">
+        <v>146</v>
+      </c>
       <c r="H107" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I107" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>18</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G108" t="s">
+        <v>24</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>119</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="G109" t="s">
+        <v>146</v>
+      </c>
       <c r="H109" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I109" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G110" t="s">
+        <v>24</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>119</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="G111" t="s">
+        <v>146</v>
+      </c>
       <c r="H111" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I111" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G112" t="s">
+        <v>24</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>119</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="G113" t="s">
+        <v>146</v>
+      </c>
       <c r="H113" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I113" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>18</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G114" t="s">
+        <v>24</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>119</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="G115" t="s">
+        <v>146</v>
+      </c>
       <c r="H115" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I115" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>18</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G116" t="s">
+        <v>24</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>119</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="G117" t="s">
+        <v>146</v>
+      </c>
       <c r="H117" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I117" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>18</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G118" t="s">
+        <v>24</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>119</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="G119" t="s">
+        <v>146</v>
+      </c>
       <c r="H119" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I119" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>18</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G120" t="s">
+        <v>24</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>119</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="G121" t="s">
+        <v>146</v>
+      </c>
       <c r="H121" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I121" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>11</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G122" t="s">
+        <v>13</v>
+      </c>
       <c r="H122" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I122" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>144</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>172</v>
+      </c>
+      <c r="G123" t="s">
+        <v>173</v>
+      </c>
       <c r="H123" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>174</v>
+      </c>
+      <c r="I123" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G124" t="s">
+        <v>24</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>144</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>172</v>
+      </c>
+      <c r="G125" t="s">
+        <v>173</v>
+      </c>
       <c r="H125" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>174</v>
+      </c>
+      <c r="I125" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>18</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G126" t="s">
+        <v>24</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>11</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G127" t="s">
+        <v>13</v>
+      </c>
       <c r="H127" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I127" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>150</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>180</v>
+      </c>
+      <c r="G128" t="s">
+        <v>181</v>
+      </c>
       <c r="H128" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>182</v>
+      </c>
+      <c r="I128" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>18</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G129" t="s">
+        <v>24</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>150</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>180</v>
+      </c>
+      <c r="G130" t="s">
+        <v>181</v>
+      </c>
       <c r="H130" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>182</v>
+      </c>
+      <c r="I130" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>18</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G131" t="s">
+        <v>24</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>150</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>180</v>
+      </c>
+      <c r="G132" t="s">
+        <v>181</v>
+      </c>
       <c r="H132" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>182</v>
+      </c>
+      <c r="I132" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>11</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G133" t="s">
+        <v>13</v>
+      </c>
       <c r="H133" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I133" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>157</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>189</v>
+      </c>
+      <c r="G134" t="s">
+        <v>190</v>
+      </c>
       <c r="H134" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I134" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>18</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G135" t="s">
+        <v>24</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>157</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>189</v>
+      </c>
+      <c r="G136" t="s">
+        <v>190</v>
+      </c>
       <c r="H136" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I136" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>11</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G137" t="s">
+        <v>13</v>
+      </c>
       <c r="H137" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I137" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>157</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>189</v>
+      </c>
+      <c r="G138" t="s">
+        <v>190</v>
+      </c>
       <c r="H138" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I138" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>11</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G139" t="s">
+        <v>13</v>
+      </c>
       <c r="H139" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I139" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>164</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G140" t="s">
+        <v>199</v>
+      </c>
       <c r="H140" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I140" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>18</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G141" t="s">
+        <v>24</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>164</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G142" t="s">
+        <v>199</v>
+      </c>
       <c r="H142" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I142" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>18</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G143" t="s">
+        <v>24</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>164</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G144" t="s">
+        <v>199</v>
+      </c>
       <c r="H144" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I144" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>11</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G145" t="s">
+        <v>13</v>
+      </c>
       <c r="H145" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I145" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>171</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>207</v>
+      </c>
+      <c r="G146" t="s">
+        <v>208</v>
+      </c>
       <c r="H146" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>209</v>
+      </c>
+      <c r="I146" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>18</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G147" t="s">
+        <v>24</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>171</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>207</v>
+      </c>
+      <c r="G148" t="s">
+        <v>208</v>
+      </c>
       <c r="H148" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>209</v>
+      </c>
+      <c r="I148" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>18</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G149" t="s">
+        <v>24</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>11</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G150" t="s">
+        <v>13</v>
+      </c>
       <c r="H150" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I150" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>177</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>215</v>
+      </c>
+      <c r="G151" t="s">
+        <v>216</v>
+      </c>
       <c r="H151" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>217</v>
+      </c>
+      <c r="I151" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>18</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G152" t="s">
+        <v>24</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>177</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>215</v>
+      </c>
+      <c r="G153" t="s">
+        <v>216</v>
+      </c>
       <c r="H153" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>217</v>
+      </c>
+      <c r="I153" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>18</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G154" t="s">
+        <v>24</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>177</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>215</v>
+      </c>
+      <c r="G155" t="s">
+        <v>216</v>
+      </c>
       <c r="H155" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>217</v>
+      </c>
+      <c r="I155" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>18</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G156" t="s">
+        <v>24</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>177</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>215</v>
+      </c>
+      <c r="G157" t="s">
+        <v>216</v>
+      </c>
       <c r="H157" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>217</v>
+      </c>
+      <c r="I157" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>18</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G158" t="s">
+        <v>24</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>177</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>215</v>
+      </c>
+      <c r="G159" t="s">
+        <v>216</v>
+      </c>
       <c r="H159" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>217</v>
+      </c>
+      <c r="I159" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>18</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G160" t="s">
+        <v>24</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>177</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>215</v>
+      </c>
+      <c r="G161" t="s">
+        <v>216</v>
+      </c>
       <c r="H161" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>217</v>
+      </c>
+      <c r="I161" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>11</v>
-      </c>
-      <c r="G162" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G162" t="s">
+        <v>13</v>
+      </c>
       <c r="H162" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I162" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>189</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>229</v>
+      </c>
+      <c r="G163" t="s">
+        <v>230</v>
+      </c>
       <c r="H163" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>231</v>
+      </c>
+      <c r="I163" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>18</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G164" t="s">
+        <v>24</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>189</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>229</v>
+      </c>
+      <c r="G165" t="s">
+        <v>230</v>
+      </c>
       <c r="H165" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>231</v>
+      </c>
+      <c r="I165" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>18</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G166" t="s">
+        <v>24</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>189</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>229</v>
+      </c>
+      <c r="G167" t="s">
+        <v>230</v>
+      </c>
       <c r="H167" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>231</v>
+      </c>
+      <c r="I167" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>18</v>
-      </c>
-      <c r="G168" t="s"/>
-      <c r="H168" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G168" t="s">
+        <v>24</v>
+      </c>
+      <c r="H168" t="s"/>
+      <c r="I168" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>189</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>229</v>
+      </c>
+      <c r="G169" t="s">
+        <v>230</v>
+      </c>
       <c r="H169" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>231</v>
+      </c>
+      <c r="I169" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>18</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G170" t="s">
+        <v>24</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>189</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>229</v>
+      </c>
+      <c r="G171" t="s">
+        <v>230</v>
+      </c>
       <c r="H171" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>231</v>
+      </c>
+      <c r="I171" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>11</v>
-      </c>
-      <c r="G172" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G172" t="s">
+        <v>13</v>
+      </c>
       <c r="H172" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I172" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>200</v>
-      </c>
-      <c r="G173" t="s"/>
+        <v>242</v>
+      </c>
+      <c r="G173" t="s">
+        <v>243</v>
+      </c>
       <c r="H173" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>244</v>
+      </c>
+      <c r="I173" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>18</v>
-      </c>
-      <c r="G174" t="s"/>
-      <c r="H174" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G174" t="s">
+        <v>24</v>
+      </c>
+      <c r="H174" t="s"/>
+      <c r="I174" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>200</v>
-      </c>
-      <c r="G175" t="s"/>
+        <v>242</v>
+      </c>
+      <c r="G175" t="s">
+        <v>243</v>
+      </c>
       <c r="H175" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>244</v>
+      </c>
+      <c r="I175" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>11</v>
-      </c>
-      <c r="G176" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G176" t="s">
+        <v>13</v>
+      </c>
       <c r="H176" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I176" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>205</v>
-      </c>
-      <c r="G177" t="s"/>
+        <v>249</v>
+      </c>
+      <c r="G177" t="s">
+        <v>250</v>
+      </c>
       <c r="H177" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>251</v>
+      </c>
+      <c r="I177" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>18</v>
-      </c>
-      <c r="G178" t="s"/>
-      <c r="H178" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G178" t="s">
+        <v>24</v>
+      </c>
+      <c r="H178" t="s"/>
+      <c r="I178" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>205</v>
-      </c>
-      <c r="G179" t="s"/>
+        <v>249</v>
+      </c>
+      <c r="G179" t="s">
+        <v>250</v>
+      </c>
       <c r="H179" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>251</v>
+      </c>
+      <c r="I179" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>18</v>
-      </c>
-      <c r="G180" t="s"/>
-      <c r="H180" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G180" t="s">
+        <v>24</v>
+      </c>
+      <c r="H180" t="s"/>
+      <c r="I180" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>205</v>
-      </c>
-      <c r="G181" t="s"/>
+        <v>249</v>
+      </c>
+      <c r="G181" t="s">
+        <v>250</v>
+      </c>
       <c r="H181" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>251</v>
+      </c>
+      <c r="I181" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>18</v>
-      </c>
-      <c r="G182" t="s"/>
-      <c r="H182" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G182" t="s">
+        <v>24</v>
+      </c>
+      <c r="H182" t="s"/>
+      <c r="I182" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>11</v>
-      </c>
-      <c r="G183" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G183" t="s">
+        <v>13</v>
+      </c>
       <c r="H183" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I183" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>213</v>
-      </c>
-      <c r="G184" t="s"/>
+        <v>259</v>
+      </c>
+      <c r="G184" t="s">
+        <v>260</v>
+      </c>
       <c r="H184" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I184" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>18</v>
-      </c>
-      <c r="G185" t="s"/>
-      <c r="H185" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G185" t="s">
+        <v>24</v>
+      </c>
+      <c r="H185" t="s"/>
+      <c r="I185" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>213</v>
-      </c>
-      <c r="G186" t="s"/>
+        <v>259</v>
+      </c>
+      <c r="G186" t="s">
+        <v>260</v>
+      </c>
       <c r="H186" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I186" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>18</v>
-      </c>
-      <c r="G187" t="s"/>
-      <c r="H187" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G187" t="s">
+        <v>24</v>
+      </c>
+      <c r="H187" t="s"/>
+      <c r="I187" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>213</v>
-      </c>
-      <c r="G188" t="s"/>
+        <v>259</v>
+      </c>
+      <c r="G188" t="s">
+        <v>260</v>
+      </c>
       <c r="H188" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I188" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>18</v>
-      </c>
-      <c r="G189" t="s"/>
-      <c r="H189" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G189" t="s">
+        <v>24</v>
+      </c>
+      <c r="H189" t="s"/>
+      <c r="I189" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>213</v>
-      </c>
-      <c r="G190" t="s"/>
+        <v>259</v>
+      </c>
+      <c r="G190" t="s">
+        <v>260</v>
+      </c>
       <c r="H190" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I190" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>18</v>
-      </c>
-      <c r="G191" t="s"/>
-      <c r="H191" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G191" t="s">
+        <v>24</v>
+      </c>
+      <c r="H191" t="s"/>
+      <c r="I191" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>213</v>
-      </c>
-      <c r="G192" t="s"/>
+        <v>259</v>
+      </c>
+      <c r="G192" t="s">
+        <v>260</v>
+      </c>
       <c r="H192" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I192" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>18</v>
-      </c>
-      <c r="G193" t="s"/>
-      <c r="H193" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G193" t="s">
+        <v>24</v>
+      </c>
+      <c r="H193" t="s"/>
+      <c r="I193" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>213</v>
-      </c>
-      <c r="G194" t="s"/>
+        <v>259</v>
+      </c>
+      <c r="G194" t="s">
+        <v>260</v>
+      </c>
       <c r="H194" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I194" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>18</v>
-      </c>
-      <c r="G195" t="s"/>
-      <c r="H195" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G195" t="s">
+        <v>24</v>
+      </c>
+      <c r="H195" t="s"/>
+      <c r="I195" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>213</v>
-      </c>
-      <c r="G196" t="s"/>
+        <v>259</v>
+      </c>
+      <c r="G196" t="s">
+        <v>260</v>
+      </c>
       <c r="H196" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I196" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>18</v>
-      </c>
-      <c r="G197" t="s"/>
-      <c r="H197" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G197" t="s">
+        <v>24</v>
+      </c>
+      <c r="H197" t="s"/>
+      <c r="I197" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>11</v>
-      </c>
-      <c r="G198" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G198" t="s">
+        <v>13</v>
+      </c>
       <c r="H198" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I198" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>229</v>
-      </c>
-      <c r="G199" t="s"/>
+        <v>276</v>
+      </c>
+      <c r="G199" t="s">
+        <v>277</v>
+      </c>
       <c r="H199" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>278</v>
+      </c>
+      <c r="I199" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>18</v>
-      </c>
-      <c r="G200" t="s"/>
-      <c r="H200" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G200" t="s">
+        <v>24</v>
+      </c>
+      <c r="H200" t="s"/>
+      <c r="I200" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>229</v>
-      </c>
-      <c r="G201" t="s"/>
+        <v>276</v>
+      </c>
+      <c r="G201" t="s">
+        <v>277</v>
+      </c>
       <c r="H201" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>278</v>
+      </c>
+      <c r="I201" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>18</v>
-      </c>
-      <c r="G202" t="s"/>
-      <c r="H202" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G202" t="s">
+        <v>24</v>
+      </c>
+      <c r="H202" t="s"/>
+      <c r="I202" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>229</v>
-      </c>
-      <c r="G203" t="s"/>
+        <v>276</v>
+      </c>
+      <c r="G203" t="s">
+        <v>277</v>
+      </c>
       <c r="H203" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>278</v>
+      </c>
+      <c r="I203" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F204" t="s">
-        <v>11</v>
-      </c>
-      <c r="G204" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G204" t="s">
+        <v>13</v>
+      </c>
       <c r="H204" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I204" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F205" t="s">
-        <v>13</v>
-      </c>
-      <c r="G205" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G205" t="s">
+        <v>17</v>
+      </c>
       <c r="H205" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I205" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F206" t="s">
-        <v>11</v>
-      </c>
-      <c r="G206" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G206" t="s">
+        <v>13</v>
+      </c>
       <c r="H206" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I206" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F207" t="s">
-        <v>18</v>
-      </c>
-      <c r="G207" t="s"/>
-      <c r="H207" t="s">
-        <v>238</v>
+        <v>23</v>
+      </c>
+      <c r="G207" t="s">
+        <v>24</v>
+      </c>
+      <c r="H207" t="s"/>
+      <c r="I207" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98731.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98731.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="292">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400224</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Kline</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400364</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Scott</t>
   </si>
   <si>
@@ -125,6 +134,9 @@
   </si>
   <si>
     <t>412310</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Roe</t>
@@ -1226,7 +1238,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I207"/>
+  <dimension ref="A1:J207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1234,7 +1246,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1259,5819 +1271,6280 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>18</v>
       </c>
-      <c r="I11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="J18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="J20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H24" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="J24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H26" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="J26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G28" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H28" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>55</v>
+      </c>
+      <c r="J28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G30" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>55</v>
+      </c>
+      <c r="J30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G32" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>55</v>
+      </c>
+      <c r="J32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G34" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="H34" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" t="s">
-        <v>24</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G36" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="H36" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" t="s">
-        <v>24</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G38" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" t="s">
-        <v>24</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>27</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G41" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="H41" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I41" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>23</v>
-      </c>
-      <c r="G42" t="s">
-        <v>24</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>27</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G43" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="H43" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I43" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" t="s">
-        <v>24</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>27</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G45" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="H45" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I45" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I46" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G47" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="H47" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I47" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>23</v>
-      </c>
-      <c r="G48" t="s">
-        <v>24</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>27</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G49" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="H49" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I49" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J49" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>23</v>
-      </c>
-      <c r="G50" t="s">
-        <v>24</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>27</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G51" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="H51" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I51" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J51" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>23</v>
-      </c>
-      <c r="G52" t="s">
-        <v>24</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>27</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G53" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="H53" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I53" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J53" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>23</v>
-      </c>
-      <c r="G54" t="s">
-        <v>24</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>27</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G55" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="H55" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I55" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J55" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I56" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G57" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="H57" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I57" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>23</v>
-      </c>
-      <c r="G58" t="s">
-        <v>24</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>27</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G59" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="H59" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I59" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J59" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>23</v>
-      </c>
-      <c r="G60" t="s">
-        <v>24</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>27</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G61" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="H61" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I61" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J61" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>23</v>
-      </c>
-      <c r="G62" t="s">
-        <v>24</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>27</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G63" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="H63" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I63" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J63" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>23</v>
-      </c>
-      <c r="G64" t="s">
-        <v>24</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>27</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G65" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="H65" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I65" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J65" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>23</v>
-      </c>
-      <c r="G66" t="s">
-        <v>24</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>27</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G67" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="H67" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I67" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J67" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>23</v>
-      </c>
-      <c r="G68" t="s">
-        <v>24</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>27</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G69" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="H69" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I69" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J69" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G70" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="H70" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I70" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J70" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I71" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J71" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G72" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="H72" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I72" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J72" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>23</v>
-      </c>
-      <c r="G73" t="s">
-        <v>24</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>27</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G74" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="H74" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J74" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>23</v>
-      </c>
-      <c r="G75" t="s">
-        <v>24</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>27</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G76" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="H76" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I76" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="J76" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>23</v>
-      </c>
-      <c r="G77" t="s">
-        <v>24</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>27</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G78" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="H78" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I78" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J78" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I79" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J79" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>23</v>
-      </c>
-      <c r="G80" t="s">
-        <v>24</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>27</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G81" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="H81" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I81" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J81" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>23</v>
-      </c>
-      <c r="G82" t="s">
-        <v>24</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>27</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G83" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="H83" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I83" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J83" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>23</v>
-      </c>
-      <c r="G84" t="s">
-        <v>24</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>27</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I85" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J85" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G86" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="H86" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I86" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J86" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>23</v>
-      </c>
-      <c r="G87" t="s">
-        <v>24</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>27</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G88" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="H88" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I88" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J88" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>23</v>
-      </c>
-      <c r="G89" t="s">
-        <v>24</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>27</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G90" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="H90" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I90" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J90" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>23</v>
-      </c>
-      <c r="G91" t="s">
-        <v>24</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>27</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I92" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J92" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G93" t="s">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="H93" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I93" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>142</v>
+      </c>
+      <c r="J93" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>23</v>
-      </c>
-      <c r="G94" t="s">
-        <v>24</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>27</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G95" t="s">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="H95" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I95" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>142</v>
+      </c>
+      <c r="J95" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>23</v>
-      </c>
-      <c r="G96" t="s">
-        <v>24</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>27</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G97" t="s">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="H97" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I97" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>142</v>
+      </c>
+      <c r="J97" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I98" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J98" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G99" t="s">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="H99" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I99" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J99" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>23</v>
-      </c>
-      <c r="G100" t="s">
-        <v>24</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>27</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G101" t="s">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="H101" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I101" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J101" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>23</v>
-      </c>
-      <c r="G102" t="s">
-        <v>24</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>27</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G103" t="s">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="H103" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I103" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J103" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>23</v>
-      </c>
-      <c r="G104" t="s">
-        <v>24</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>27</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G105" t="s">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="H105" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I105" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J105" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>23</v>
-      </c>
-      <c r="G106" t="s">
-        <v>24</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>27</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G107" t="s">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="H107" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I107" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J107" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>23</v>
-      </c>
-      <c r="G108" t="s">
-        <v>24</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>27</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G109" t="s">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="H109" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I109" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J109" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>23</v>
-      </c>
-      <c r="G110" t="s">
-        <v>24</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>27</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G111" t="s">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="H111" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I111" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J111" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>23</v>
-      </c>
-      <c r="G112" t="s">
-        <v>24</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>27</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G113" t="s">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="H113" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I113" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J113" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>23</v>
-      </c>
-      <c r="G114" t="s">
-        <v>24</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>27</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G115" t="s">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="H115" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I115" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J115" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>23</v>
-      </c>
-      <c r="G116" t="s">
-        <v>24</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>27</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G117" t="s">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="H117" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I117" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J117" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>23</v>
-      </c>
-      <c r="G118" t="s">
-        <v>24</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>27</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G119" t="s">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="H119" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I119" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J119" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>23</v>
-      </c>
-      <c r="G120" t="s">
-        <v>24</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>27</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G121" t="s">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="H121" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I121" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J121" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H122" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I122" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J122" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G123" t="s">
-        <v>173</v>
+        <v>40</v>
       </c>
       <c r="H123" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I123" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>178</v>
+      </c>
+      <c r="J123" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>23</v>
-      </c>
-      <c r="G124" t="s">
-        <v>24</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>27</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G125" t="s">
-        <v>173</v>
+        <v>40</v>
       </c>
       <c r="H125" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I125" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>178</v>
+      </c>
+      <c r="J125" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>23</v>
-      </c>
-      <c r="G126" t="s">
-        <v>24</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>27</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G127" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H127" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I127" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J127" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G128" t="s">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="H128" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I128" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>186</v>
+      </c>
+      <c r="J128" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>23</v>
-      </c>
-      <c r="G129" t="s">
-        <v>24</v>
-      </c>
-      <c r="H129" t="s"/>
-      <c r="I129" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G129" t="s"/>
+      <c r="H129" t="s">
+        <v>27</v>
+      </c>
+      <c r="I129" t="s"/>
+      <c r="J129" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G130" t="s">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="H130" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I130" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>186</v>
+      </c>
+      <c r="J130" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>23</v>
-      </c>
-      <c r="G131" t="s">
-        <v>24</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
+        <v>27</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G132" t="s">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="H132" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I132" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>186</v>
+      </c>
+      <c r="J132" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G133" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I133" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J133" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G134" t="s">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="H134" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I134" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>195</v>
+      </c>
+      <c r="J134" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>23</v>
-      </c>
-      <c r="G135" t="s">
-        <v>24</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>27</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G136" t="s">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="H136" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I136" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>195</v>
+      </c>
+      <c r="J136" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G137" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H137" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I137" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J137" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G138" t="s">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="H138" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I138" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>195</v>
+      </c>
+      <c r="J138" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G139" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I139" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J139" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G140" t="s">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="H140" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I140" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J140" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>23</v>
-      </c>
-      <c r="G141" t="s">
-        <v>24</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>27</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G142" t="s">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="H142" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I142" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J142" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>23</v>
-      </c>
-      <c r="G143" t="s">
-        <v>24</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
+        <v>27</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G144" t="s">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="H144" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I144" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J144" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G145" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H145" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I145" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J145" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G146" t="s">
-        <v>208</v>
+        <v>40</v>
       </c>
       <c r="H146" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I146" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>213</v>
+      </c>
+      <c r="J146" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>23</v>
-      </c>
-      <c r="G147" t="s">
-        <v>24</v>
-      </c>
-      <c r="H147" t="s"/>
-      <c r="I147" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
+        <v>27</v>
+      </c>
+      <c r="I147" t="s"/>
+      <c r="J147" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G148" t="s">
-        <v>208</v>
+        <v>40</v>
       </c>
       <c r="H148" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I148" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>213</v>
+      </c>
+      <c r="J148" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>23</v>
-      </c>
-      <c r="G149" t="s">
-        <v>24</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
+        <v>27</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G150" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H150" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I150" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J150" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G151" t="s">
-        <v>216</v>
+        <v>40</v>
       </c>
       <c r="H151" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I151" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>221</v>
+      </c>
+      <c r="J151" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>23</v>
-      </c>
-      <c r="G152" t="s">
-        <v>24</v>
-      </c>
-      <c r="H152" t="s"/>
-      <c r="I152" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
+        <v>27</v>
+      </c>
+      <c r="I152" t="s"/>
+      <c r="J152" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G153" t="s">
-        <v>216</v>
+        <v>40</v>
       </c>
       <c r="H153" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I153" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>221</v>
+      </c>
+      <c r="J153" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>23</v>
-      </c>
-      <c r="G154" t="s">
-        <v>24</v>
-      </c>
-      <c r="H154" t="s"/>
-      <c r="I154" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
+        <v>27</v>
+      </c>
+      <c r="I154" t="s"/>
+      <c r="J154" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G155" t="s">
-        <v>216</v>
+        <v>40</v>
       </c>
       <c r="H155" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I155" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>221</v>
+      </c>
+      <c r="J155" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>23</v>
-      </c>
-      <c r="G156" t="s">
-        <v>24</v>
-      </c>
-      <c r="H156" t="s"/>
-      <c r="I156" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
+        <v>27</v>
+      </c>
+      <c r="I156" t="s"/>
+      <c r="J156" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G157" t="s">
-        <v>216</v>
+        <v>40</v>
       </c>
       <c r="H157" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I157" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>221</v>
+      </c>
+      <c r="J157" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>23</v>
-      </c>
-      <c r="G158" t="s">
-        <v>24</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>27</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G159" t="s">
-        <v>216</v>
+        <v>40</v>
       </c>
       <c r="H159" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I159" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>221</v>
+      </c>
+      <c r="J159" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>23</v>
-      </c>
-      <c r="G160" t="s">
-        <v>24</v>
-      </c>
-      <c r="H160" t="s"/>
-      <c r="I160" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
+        <v>27</v>
+      </c>
+      <c r="I160" t="s"/>
+      <c r="J160" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G161" t="s">
-        <v>216</v>
+        <v>40</v>
       </c>
       <c r="H161" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I161" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>221</v>
+      </c>
+      <c r="J161" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G162" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H162" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I162" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J162" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G163" t="s">
-        <v>230</v>
+        <v>40</v>
       </c>
       <c r="H163" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="I163" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>235</v>
+      </c>
+      <c r="J163" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>23</v>
-      </c>
-      <c r="G164" t="s">
-        <v>24</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>27</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G165" t="s">
-        <v>230</v>
+        <v>40</v>
       </c>
       <c r="H165" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="I165" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>235</v>
+      </c>
+      <c r="J165" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>23</v>
-      </c>
-      <c r="G166" t="s">
-        <v>24</v>
-      </c>
-      <c r="H166" t="s"/>
-      <c r="I166" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G166" t="s"/>
+      <c r="H166" t="s">
+        <v>27</v>
+      </c>
+      <c r="I166" t="s"/>
+      <c r="J166" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G167" t="s">
-        <v>230</v>
+        <v>40</v>
       </c>
       <c r="H167" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="I167" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>235</v>
+      </c>
+      <c r="J167" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>23</v>
-      </c>
-      <c r="G168" t="s">
-        <v>24</v>
-      </c>
-      <c r="H168" t="s"/>
-      <c r="I168" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G168" t="s"/>
+      <c r="H168" t="s">
+        <v>27</v>
+      </c>
+      <c r="I168" t="s"/>
+      <c r="J168" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G169" t="s">
-        <v>230</v>
+        <v>40</v>
       </c>
       <c r="H169" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="I169" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>235</v>
+      </c>
+      <c r="J169" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>23</v>
-      </c>
-      <c r="G170" t="s">
-        <v>24</v>
-      </c>
-      <c r="H170" t="s"/>
-      <c r="I170" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s">
+        <v>27</v>
+      </c>
+      <c r="I170" t="s"/>
+      <c r="J170" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G171" t="s">
-        <v>230</v>
+        <v>40</v>
       </c>
       <c r="H171" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="I171" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>235</v>
+      </c>
+      <c r="J171" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G172" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H172" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I172" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J172" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G173" t="s">
-        <v>243</v>
+        <v>40</v>
       </c>
       <c r="H173" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I173" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>248</v>
+      </c>
+      <c r="J173" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>23</v>
-      </c>
-      <c r="G174" t="s">
-        <v>24</v>
-      </c>
-      <c r="H174" t="s"/>
-      <c r="I174" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G174" t="s"/>
+      <c r="H174" t="s">
+        <v>27</v>
+      </c>
+      <c r="I174" t="s"/>
+      <c r="J174" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G175" t="s">
-        <v>243</v>
+        <v>40</v>
       </c>
       <c r="H175" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I175" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>248</v>
+      </c>
+      <c r="J175" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G176" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H176" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I176" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J176" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G177" t="s">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="H177" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I177" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>255</v>
+      </c>
+      <c r="J177" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>23</v>
-      </c>
-      <c r="G178" t="s">
-        <v>24</v>
-      </c>
-      <c r="H178" t="s"/>
-      <c r="I178" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G178" t="s"/>
+      <c r="H178" t="s">
+        <v>27</v>
+      </c>
+      <c r="I178" t="s"/>
+      <c r="J178" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G179" t="s">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="H179" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I179" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>255</v>
+      </c>
+      <c r="J179" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>23</v>
-      </c>
-      <c r="G180" t="s">
-        <v>24</v>
-      </c>
-      <c r="H180" t="s"/>
-      <c r="I180" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G180" t="s"/>
+      <c r="H180" t="s">
+        <v>27</v>
+      </c>
+      <c r="I180" t="s"/>
+      <c r="J180" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G181" t="s">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="H181" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I181" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>255</v>
+      </c>
+      <c r="J181" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>23</v>
-      </c>
-      <c r="G182" t="s">
-        <v>24</v>
-      </c>
-      <c r="H182" t="s"/>
-      <c r="I182" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G182" t="s"/>
+      <c r="H182" t="s">
+        <v>27</v>
+      </c>
+      <c r="I182" t="s"/>
+      <c r="J182" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G183" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H183" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I183" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J183" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G184" t="s">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="H184" t="s">
-        <v>60</v>
+        <v>264</v>
       </c>
       <c r="I184" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J184" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>23</v>
-      </c>
-      <c r="G185" t="s">
-        <v>24</v>
-      </c>
-      <c r="H185" t="s"/>
-      <c r="I185" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G185" t="s"/>
+      <c r="H185" t="s">
+        <v>27</v>
+      </c>
+      <c r="I185" t="s"/>
+      <c r="J185" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G186" t="s">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="H186" t="s">
-        <v>60</v>
+        <v>264</v>
       </c>
       <c r="I186" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J186" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>23</v>
-      </c>
-      <c r="G187" t="s">
-        <v>24</v>
-      </c>
-      <c r="H187" t="s"/>
-      <c r="I187" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G187" t="s"/>
+      <c r="H187" t="s">
+        <v>27</v>
+      </c>
+      <c r="I187" t="s"/>
+      <c r="J187" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G188" t="s">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="H188" t="s">
-        <v>60</v>
+        <v>264</v>
       </c>
       <c r="I188" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J188" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>23</v>
-      </c>
-      <c r="G189" t="s">
-        <v>24</v>
-      </c>
-      <c r="H189" t="s"/>
-      <c r="I189" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G189" t="s"/>
+      <c r="H189" t="s">
+        <v>27</v>
+      </c>
+      <c r="I189" t="s"/>
+      <c r="J189" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G190" t="s">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="H190" t="s">
-        <v>60</v>
+        <v>264</v>
       </c>
       <c r="I190" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J190" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>23</v>
-      </c>
-      <c r="G191" t="s">
-        <v>24</v>
-      </c>
-      <c r="H191" t="s"/>
-      <c r="I191" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G191" t="s"/>
+      <c r="H191" t="s">
+        <v>27</v>
+      </c>
+      <c r="I191" t="s"/>
+      <c r="J191" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G192" t="s">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="H192" t="s">
-        <v>60</v>
+        <v>264</v>
       </c>
       <c r="I192" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J192" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>23</v>
-      </c>
-      <c r="G193" t="s">
-        <v>24</v>
-      </c>
-      <c r="H193" t="s"/>
-      <c r="I193" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G193" t="s"/>
+      <c r="H193" t="s">
+        <v>27</v>
+      </c>
+      <c r="I193" t="s"/>
+      <c r="J193" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G194" t="s">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="H194" t="s">
-        <v>60</v>
+        <v>264</v>
       </c>
       <c r="I194" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J194" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>23</v>
-      </c>
-      <c r="G195" t="s">
-        <v>24</v>
-      </c>
-      <c r="H195" t="s"/>
-      <c r="I195" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G195" t="s"/>
+      <c r="H195" t="s">
+        <v>27</v>
+      </c>
+      <c r="I195" t="s"/>
+      <c r="J195" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F196" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G196" t="s">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="H196" t="s">
-        <v>60</v>
+        <v>264</v>
       </c>
       <c r="I196" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J196" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F197" t="s">
-        <v>23</v>
-      </c>
-      <c r="G197" t="s">
-        <v>24</v>
-      </c>
-      <c r="H197" t="s"/>
-      <c r="I197" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G197" t="s"/>
+      <c r="H197" t="s">
+        <v>27</v>
+      </c>
+      <c r="I197" t="s"/>
+      <c r="J197" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F198" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G198" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H198" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I198" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J198" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E199" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F199" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G199" t="s">
-        <v>277</v>
+        <v>40</v>
       </c>
       <c r="H199" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="I199" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>282</v>
+      </c>
+      <c r="J199" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E200" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F200" t="s">
-        <v>23</v>
-      </c>
-      <c r="G200" t="s">
-        <v>24</v>
-      </c>
-      <c r="H200" t="s"/>
-      <c r="I200" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G200" t="s"/>
+      <c r="H200" t="s">
+        <v>27</v>
+      </c>
+      <c r="I200" t="s"/>
+      <c r="J200" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F201" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G201" t="s">
-        <v>277</v>
+        <v>40</v>
       </c>
       <c r="H201" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="I201" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>282</v>
+      </c>
+      <c r="J201" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E202" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F202" t="s">
-        <v>23</v>
-      </c>
-      <c r="G202" t="s">
-        <v>24</v>
-      </c>
-      <c r="H202" t="s"/>
-      <c r="I202" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G202" t="s"/>
+      <c r="H202" t="s">
+        <v>27</v>
+      </c>
+      <c r="I202" t="s"/>
+      <c r="J202" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E203" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F203" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G203" t="s">
-        <v>277</v>
+        <v>40</v>
       </c>
       <c r="H203" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="I203" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
+        <v>282</v>
+      </c>
+      <c r="J203" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E204" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F204" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G204" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H204" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I204" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J204" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E205" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F205" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G205" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H205" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I205" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J205" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E206" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F206" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G206" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H206" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I206" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J206" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E207" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F207" t="s">
-        <v>23</v>
-      </c>
-      <c r="G207" t="s">
-        <v>24</v>
-      </c>
-      <c r="H207" t="s"/>
-      <c r="I207" t="s">
-        <v>287</v>
+        <v>26</v>
+      </c>
+      <c r="G207" t="s"/>
+      <c r="H207" t="s">
+        <v>27</v>
+      </c>
+      <c r="I207" t="s"/>
+      <c r="J207" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
